--- a/runicodes.xlsx
+++ b/runicodes.xlsx
@@ -32438,7 +32438,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/runicodes.xlsx
+++ b/runicodes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4633">
   <si>
     <t>NUM</t>
   </si>
@@ -12117,151 +12117,2386 @@
     <t>1004</t>
   </si>
   <si>
+    <t>¡¡.</t>
+  </si>
+  <si>
+    <t>ˇ accent-circumflex-inverted-end-a-message-ar</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#00A1;&amp;#00A1;&amp;#2024;&lt;/u&gt;</t>
+  </si>
+  <si>
     <t>1005</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>‼︎∣</t>
+    </r>
+  </si>
+  <si>
+    <t>^ accent-circumflex-inverted-start-a-message-ka</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#203C;&amp;#2223;&lt;/u&gt;</t>
+  </si>
+  <si>
     <t>1006</t>
   </si>
   <si>
+    <t>&amp; ampersand-same-as-plus</t>
+  </si>
+  <si>
+    <t>&amp;#00A1;&amp;#00A1;&amp;#2024;</t>
+  </si>
+  <si>
     <t>1007</t>
   </si>
   <si>
+    <t>&gt; end-a-message-ar-bigger-than</t>
+  </si>
+  <si>
     <t>1008</t>
   </si>
   <si>
+    <t>+ plus-addition-same-as-end-message</t>
+  </si>
+  <si>
     <t>1009</t>
   </si>
   <si>
+    <t>‼︎∣</t>
+  </si>
+  <si>
+    <t>&lt; start-a-message-ka-smaller-than</t>
+  </si>
+  <si>
+    <t>&amp;#203C;&amp;#2223;</t>
+  </si>
+  <si>
     <t>1010</t>
   </si>
   <si>
+    <t>∣¦¦</t>
+  </si>
+  <si>
+    <t>° degree-from-inverted-numeric-0-tot</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#2223;&amp;#00A6;&amp;#00A6;&lt;/u&gt;</t>
+  </si>
+  <si>
     <t>1011</t>
   </si>
   <si>
+    <t>¡¦∣</t>
+  </si>
+  <si>
+    <t>1-amt</t>
+  </si>
+  <si>
+    <t>&amp;#00A1;&amp;#00A6;&amp;#2223;</t>
+  </si>
+  <si>
     <t>1012</t>
   </si>
   <si>
+    <t>:¦∣</t>
+  </si>
+  <si>
+    <t>2-um</t>
+  </si>
+  <si>
+    <t>&amp;#2236;&amp;#00A6;&amp;#2223;</t>
+  </si>
+  <si>
     <t>1013</t>
   </si>
   <si>
+    <t>:¡∣</t>
+  </si>
+  <si>
+    <t>3-sm</t>
+  </si>
+  <si>
+    <t>&amp;#2236;&amp;#00A1;&amp;#2223;</t>
+  </si>
+  <si>
     <t>1014</t>
   </si>
   <si>
+    <t>::∣</t>
+  </si>
+  <si>
+    <t>4-set</t>
+  </si>
+  <si>
+    <t>&amp;#2236;&amp;#2236;&amp;#2223;</t>
+  </si>
+  <si>
     <t>1015</t>
   </si>
   <si>
+    <t>::.</t>
+  </si>
+  <si>
+    <t>5-is</t>
+  </si>
+  <si>
+    <t>&amp;#2236;&amp;#2236;&amp;#2024;</t>
+  </si>
+  <si>
     <t>1016</t>
   </si>
   <si>
+    <t>∣::</t>
+  </si>
+  <si>
+    <t>6-nie</t>
+  </si>
+  <si>
+    <t>&amp;#2223;&amp;#2236;&amp;#2236;</t>
+  </si>
+  <si>
     <t>1017</t>
   </si>
   <si>
+    <t>∣!:</t>
+  </si>
+  <si>
+    <t>7-mit</t>
+  </si>
+  <si>
+    <t>&amp;#2223;&amp;#0021;&amp;#2236;</t>
+  </si>
+  <si>
     <t>1018</t>
   </si>
   <si>
+    <t>∣¦:</t>
+  </si>
+  <si>
+    <t>8-tz</t>
+  </si>
+  <si>
+    <t>&amp;#2223;&amp;#00A6;&amp;#2236;</t>
+  </si>
+  <si>
     <t>1019</t>
   </si>
   <si>
+    <t>¦¦.</t>
+  </si>
+  <si>
+    <t>9-on</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#2024;</t>
+  </si>
+  <si>
     <t>1020</t>
   </si>
   <si>
+    <t>0-tot</t>
+  </si>
+  <si>
+    <t>&amp;#2223;&amp;#00A6;&amp;#00A6;</t>
+  </si>
+  <si>
     <t>1021</t>
   </si>
   <si>
+    <t>! exclamation-mark-interrupt-bt-inverted</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#2223;&amp;#22EE;&amp;#2223;&lt;/u&gt;</t>
+  </si>
+  <si>
     <t>1022</t>
   </si>
   <si>
+    <t>¡ interrupt-bt</t>
+  </si>
+  <si>
+    <t>&amp;#2223;&amp;#22EE;&amp;#2223;</t>
+  </si>
+  <si>
     <t>1023</t>
   </si>
   <si>
+    <t>¯::_</t>
+  </si>
+  <si>
+    <t>- minus-negation-tht</t>
+  </si>
+  <si>
+    <t>&amp;#00AF;&amp;#2236;&amp;#2236;&amp;#005F;</t>
+  </si>
+  <si>
     <t>1024</t>
   </si>
   <si>
+    <t>!¦.¯::_</t>
+  </si>
+  <si>
+    <t>¬ minus-negation-tht</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#00A6;&amp;#2024; +&amp;#00AF;&amp;#2236;&amp;#2236;&amp;#005F;</t>
+  </si>
+  <si>
     <t>1025</t>
   </si>
   <si>
+    <t>¡¡:</t>
+  </si>
+  <si>
+    <t>§ paragraph</t>
+  </si>
+  <si>
+    <t>&amp;#00A1;&amp;#00A1;&amp;#2236;</t>
+  </si>
+  <si>
     <t>1026</t>
   </si>
   <si>
+    <t>¶ pilcrow-sign-pause-inverted</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#22F1;&lt;/u&gt;</t>
+  </si>
+  <si>
     <t>1027</t>
   </si>
   <si>
+    <t>!:!∣</t>
+  </si>
+  <si>
+    <t># hash-number-sign-bk</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#2236;&amp;#0021;&amp;#2223;</t>
+  </si>
+  <si>
     <t>1028</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>percent-roger</t>
+    </r>
+  </si>
+  <si>
+    <t>&amp;#22ee;&amp;#0021;</t>
+  </si>
+  <si>
     <t>1029</t>
   </si>
   <si>
+    <t>_¡!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">[ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>square-bracket-open</t>
+    </r>
+  </si>
+  <si>
+    <t>&amp;#005F;&amp;#00A1;&amp;#0021;</t>
+  </si>
+  <si>
     <t>1030</t>
   </si>
   <si>
+    <t>-.¦¡</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>square-bracket-close</t>
+    </r>
+  </si>
+  <si>
+    <t>&amp;#002D;&amp;#2024;&amp;#00A6;&amp;#00A1;</t>
+  </si>
+  <si>
     <t>1031</t>
   </si>
   <si>
+    <t>!¡.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>slash-normal-xe</t>
+    </r>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#00A1;&amp;#2024;</t>
+  </si>
+  <si>
     <t>1032</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">\ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>slash-reverse-xe</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;u&gt; &amp;#0021;&amp;#00A1;&amp;#2024; &lt;/u&gt;</t>
+  </si>
+  <si>
     <t>1033</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>..</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>vertical-line-from-i-upper-case</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#2024;&amp;#2024;&lt;/u&gt;</t>
+  </si>
+  <si>
     <t>1034</t>
   </si>
   <si>
+    <t>∣¡!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>bracket-open</t>
+    </r>
+  </si>
+  <si>
+    <t>&amp;#2223;&amp;#00A1;&amp;#0021;</t>
+  </si>
+  <si>
     <t>1035</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>curly-bracket-open</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#2223;&amp;#00A1;&amp;#0021;&lt;/u&gt;</t>
+  </si>
+  <si>
     <t>1036</t>
   </si>
   <si>
+    <t>!¦¡</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>curly-bracket-close</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#0021;&amp;#00A6;&amp;#00A1;&lt;/u&gt;</t>
+  </si>
+  <si>
     <t>1037</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>bracket-close</t>
+    </r>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#00A6;&amp;#00A1;</t>
+  </si>
+  <si>
     <t>1038</t>
   </si>
   <si>
+    <t>⋮⋮∶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">˙ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>errancy-hh</t>
+    </r>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#2236;</t>
+  </si>
+  <si>
     <t>1039</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">· </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>errancy-inverted-hh</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#22EE;&amp;#22EE;&amp;#2236;&lt;/u&gt;</t>
+  </si>
+  <si>
     <t>1040</t>
   </si>
   <si>
+    <t>-⋮∣</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = equal-sign-interrupt</t>
+  </si>
+  <si>
+    <t>&amp;#002D;&amp;#22EE;&amp;#2223;</t>
+  </si>
+  <si>
     <t>1041</t>
   </si>
   <si>
+    <t>≠ unequal-sign-interrupt</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#002D;&amp;#22EE;&amp;#2223;&lt;/u&gt;</t>
+  </si>
+  <si>
     <t>1042</t>
   </si>
   <si>
+    <t>⋮¦∶</t>
+  </si>
+  <si>
+    <t>ß sz-sharp-s</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#00A6;&amp;#003A;</t>
+  </si>
+  <si>
     <t>1043</t>
   </si>
   <si>
+    <t>∶¦∶</t>
+  </si>
+  <si>
+    <t>? question-mark-normal</t>
+  </si>
+  <si>
+    <t>&amp;#003A;&amp;#00A6;&amp;#003A;</t>
+  </si>
+  <si>
     <t>1044</t>
   </si>
   <si>
+    <t>¿ question-mark-reverse-imi</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#003A;&amp;#00A6;&amp;#003A;&lt;/u&gt;</t>
+  </si>
+  <si>
     <t>1045</t>
   </si>
   <si>
+    <t>¡¦!</t>
+  </si>
+  <si>
+    <t>apostrophe-quote-low</t>
+  </si>
+  <si>
+    <t>&amp;#00A1;&amp;#00A6;&amp;#0021;</t>
+  </si>
+  <si>
     <t>1046</t>
   </si>
   <si>
+    <t>apostrophe-quote-high</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#00A1;&amp;#00A6;&amp;#0021;&lt;/u&gt;</t>
+  </si>
+  <si>
     <t>1047</t>
   </si>
   <si>
+    <t>a-lower-case</t>
+  </si>
+  <si>
     <t>1048</t>
   </si>
   <si>
+    <t>A-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#00A1;&lt;/u&gt;</t>
+  </si>
+  <si>
     <t>1049</t>
   </si>
   <si>
+    <t>¡¡</t>
+  </si>
+  <si>
+    <t>ä or ae-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#00A1;&amp;#00A1;</t>
+  </si>
+  <si>
     <t>1050</t>
   </si>
   <si>
+    <t>Ä or ae-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#00A1;&amp;#00A1;&lt;/u&gt;</t>
+  </si>
+  <si>
     <t>1051</t>
   </si>
   <si>
+    <t>ª alt-6-dah-traffic-sign-alpha</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6;</t>
+  </si>
+  <si>
     <t>1052</t>
   </si>
   <si>
+    <t>º alt-shift-9-dit-traffic-sign-omega</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE;</t>
+  </si>
+  <si>
     <t>1053</t>
+  </si>
+  <si>
+    <t>-:-</t>
+  </si>
+  <si>
+    <t>* asterisk-from-x-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#002D;&amp;#003A;&amp;#002D;</t>
+  </si>
+  <si>
+    <t>1054</t>
+  </si>
+  <si>
+    <t>b-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#003A;</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>B-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#0021;&amp;#003A;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1056</t>
+  </si>
+  <si>
+    <t>n-lower-case</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>N-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#0021;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>q-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A1;</t>
+  </si>
+  <si>
+    <t>1059</t>
+  </si>
+  <si>
+    <t>Q-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#00A6;&amp;#00A1;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>w-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#00A1;&amp;#2223;</t>
+  </si>
+  <si>
+    <t>1061</t>
+  </si>
+  <si>
+    <t>W-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#00A1;&amp;#2223;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>e-lower-case</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>E-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#2024;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1064</t>
+  </si>
+  <si>
+    <t>‰ promille-roger</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#0021;</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>¡.</t>
+  </si>
+  <si>
+    <t>r-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#00A1;&amp;#2024;</t>
+  </si>
+  <si>
+    <t>1066</t>
+  </si>
+  <si>
+    <t>R-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#00A1;&amp;#2024;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1067</t>
+  </si>
+  <si>
+    <t>t-lower-case</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>T-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#2223;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>† request-to-send-k-dagger</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#00AF;</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>z-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#003A;</t>
+  </si>
+  <si>
+    <t>1071</t>
+  </si>
+  <si>
+    <t>Z-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#00A6;&amp;#003A;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1072</t>
+  </si>
+  <si>
+    <t>u-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#003A;&amp;#2223;</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>U-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#003A;&amp;#2223;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>i-lower-case</t>
+  </si>
+  <si>
+    <t>1075</t>
+  </si>
+  <si>
+    <t>i-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#003A;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>o-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#2223;</t>
+  </si>
+  <si>
+    <t>1077</t>
+  </si>
+  <si>
+    <t>O-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#00A6;&amp;#2223;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>p-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#00A1;&amp;#0021;</t>
+  </si>
+  <si>
+    <t>1079</t>
+  </si>
+  <si>
+    <t>P-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#00A1;&amp;#0021;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>:∣-</t>
+  </si>
+  <si>
+    <t>ü or ue-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#003A;&amp;#2223;&amp;#002D;</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>Ü or ue-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#003A;&amp;#2223;&amp;#002D;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>∣⋮¯</t>
+  </si>
+  <si>
+    <t>⁄ division-slash-interrupt</t>
+  </si>
+  <si>
+    <t>&amp;#2223;&amp;#22EE;&amp;#00AF;</t>
+  </si>
+  <si>
+    <t>1083</t>
+  </si>
+  <si>
+    <t>:.</t>
+  </si>
+  <si>
+    <t>s-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#003A;&amp;#2024;</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>S-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#003A;&amp;#2024;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1085</t>
+  </si>
+  <si>
+    <t>!.</t>
+  </si>
+  <si>
+    <t>d-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#2024;</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>D-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#0021;&amp;#2024;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>f-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#003A;&amp;#0021;</t>
+  </si>
+  <si>
+    <t>1088</t>
+  </si>
+  <si>
+    <t>F-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#003A;&amp;#0021;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>g-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#2223;&amp;#0021;</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>G-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#2223;&amp;#0021;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1091</t>
+  </si>
+  <si>
+    <t>h-lower-case</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>H-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#2237;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>j-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#00A1;&amp;#00A6;</t>
+  </si>
+  <si>
+    <t>1094</t>
+  </si>
+  <si>
+    <t>J-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#00A1;&amp;#00A6;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>k-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#2223;</t>
+  </si>
+  <si>
+    <t>1096</t>
+  </si>
+  <si>
+    <t>K-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#0021;&amp;#2223;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1097</t>
+  </si>
+  <si>
+    <t>l-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#00A1;&amp;#003A;</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>L-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#00A1;&amp;#003A;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>¦!</t>
+  </si>
+  <si>
+    <t>ö or oe-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#0021;</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>Ö or oe-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#00A6;&amp;#0021;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>¡‼︎</t>
+  </si>
+  <si>
+    <t>@ masterspace-at-ac</t>
+  </si>
+  <si>
+    <t>&amp;#00A1;&amp;#203C;</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>ı vertical-line-from-i-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#008A;</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>x-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#00A1;</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>X-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#0021;&amp;#00A1;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>y-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#00A6;</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>Y-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#0021;&amp;#00A6;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>c-lower-case</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>C-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#203C;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>v-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#003A;&amp;#00A1;</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>V-upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#003A;&amp;#00A1;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>m-lower-case</t>
+  </si>
+  <si>
+    <t>&amp;#2223;&amp;#2223;</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>M-Upper-case</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#2223;&amp;#2223;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>!¦.</t>
+  </si>
+  <si>
+    <t>‡ request-to-send-by-a-station-kn-double-dagger</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#00A6;&amp;#2024;</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>◊ hash-diamond-capital-sign-bk</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#003A;&amp;#0021;&amp;#2223;</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>⋮!_</t>
+  </si>
+  <si>
+    <t>√ validation-radical-traffic-sign</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#0021;&amp;#005F;</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>¯!¡_</t>
+  </si>
+  <si>
+    <t>, comma-mim-txt</t>
+  </si>
+  <si>
+    <t>&amp;#00AF;&amp;#0021;&amp;#00A1;&amp;#005F;</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>¡¡¡</t>
+  </si>
+  <si>
+    <t>. dot-aaa</t>
+  </si>
+  <si>
+    <t>&amp;#00A1;&amp;#00A1;&amp;#00A1;</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>!!!</t>
+  </si>
+  <si>
+    <t>; semicolon-nnn</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#0021;&amp;#0021;</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>¦!:</t>
+  </si>
+  <si>
+    <t>: double-dot-mb</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#0021;&amp;#003A;</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>∞ repeat-ii-infinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;#003A; &amp;#003A; </t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>— pause-traffic-sign</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>… wait-as-horizontal-ellipse</t>
+  </si>
+  <si>
+    <t>&amp;#00A1;&amp;#22EE;</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>:¦¡</t>
+  </si>
+  <si>
+    <t>_ low-line-uk</t>
+  </si>
+  <si>
+    <t>&amp;#003A;&amp;#00A6;&amp;#00A1;</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>¯::-</t>
+  </si>
+  <si>
+    <t>- en-dash-from-inverted-minus-tht</t>
+  </si>
+  <si>
+    <t>&amp;#00AF;&amp;#2237;&amp;#002D;</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>– en-dash-from-inverted-minus-tht</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#00AF;&amp;#2237;&amp;#002D;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>„ quotation-shift-2</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>¡:!</t>
+  </si>
+  <si>
+    <t>« quote-double-open-alt-q</t>
+  </si>
+  <si>
+    <t>&amp;#00A1;&amp;#003A;&amp;#0021;</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>» quote-double-close-alt-shift-q</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#00A1;&amp;#003A;&amp;#0021;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>!:!∣ !¦</t>
+  </si>
+  <si>
+    <t>¥ Yen Currency</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#003A;&amp;#0021;&amp;2223; +&amp;#0021;&amp;00A6;</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>¦¦¦ !!∣</t>
+  </si>
+  <si>
+    <t>≤ smaller equal</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#0021;&amp;#0021;&amp;2223;</t>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ ¡¡.</t>
+  </si>
+  <si>
+    <t>≥ bigger equal</t>
+  </si>
+  <si>
+    <t>&amp;22EE;&amp;22EE;&amp;22EE; +&amp;#00A1;&amp;#00A1;&amp;#2024;</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>¦¦¦ !¡</t>
+  </si>
+  <si>
+    <t>≈ almost equal to</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#0021;&amp;00A1;</t>
+  </si>
+  <si>
+    <t>1133</t>
+  </si>
+  <si>
+    <t>¦¦¦ !</t>
+  </si>
+  <si>
+    <t>~ Tilde</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;0021;</t>
+  </si>
+  <si>
+    <t>1134</t>
+  </si>
+  <si>
+    <t>¦¦¦ ‼︎</t>
+  </si>
+  <si>
+    <t>ç Small C with cedilla</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#203C;</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ ‼︎</t>
+  </si>
+  <si>
+    <t>Ç Big C with cedilla</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&amp;#203C;</t>
+  </si>
+  <si>
+    <t>1136</t>
+  </si>
+  <si>
+    <t>!!∣ ¡:!</t>
+  </si>
+  <si>
+    <t>‹ SINGLE LEFT-POINTING ANGLE QUOTATION MARK</t>
+  </si>
+  <si>
+    <t>&amp;#203C;&amp;#2223; +&amp;#00A1;&amp;#003A;&amp;#0021;</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">¡¡. </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>¡:!</t>
+    </r>
+  </si>
+  <si>
+    <t>› SINGLE Right-POINTING ANGLE QUOTATION MARK</t>
+  </si>
+  <si>
+    <t>&amp;#00A1;&amp;#00A1;&amp;#2024; +&lt;u&gt;&amp;#00A1;&amp;#003A;&amp;#0021;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>¦¦¦ ∣∣</t>
+  </si>
+  <si>
+    <t>µ micro sign</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#2223;&amp;#2223;</t>
+  </si>
+  <si>
+    <t>1139</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ ¡¡¡</t>
+  </si>
+  <si>
+    <t>÷ Division sign</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&amp;#00A1;&amp;#00A1;&amp;#00A1;</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>¦¦¦ ¡</t>
+  </si>
+  <si>
+    <t>å Small letter a with ring above</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#00A1;</t>
+  </si>
+  <si>
+    <t>1141</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">⋮⋮⋮ </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>¡</t>
+    </r>
+  </si>
+  <si>
+    <t>Å big letter a with ring above</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&lt;u&gt;&amp;#00A1;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1142</t>
+  </si>
+  <si>
+    <t>¦¦¦ !:</t>
+  </si>
+  <si>
+    <t>∫ integral</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#0021;&amp;#003A;</t>
+  </si>
+  <si>
+    <t>1143</t>
+  </si>
+  <si>
+    <t>¦¦¦ :!</t>
+  </si>
+  <si>
+    <t>ƒ small letter F with Hook</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#003A;&amp;#0021;</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>¦¦¦ !.</t>
+  </si>
+  <si>
+    <t>∂ PARTIAL DIFFERENTIAL</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#0021;&amp;#2024;</t>
+  </si>
+  <si>
+    <t>1145</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ !¡</t>
+  </si>
+  <si>
+    <t>Ù CAPITAL LETTER U WITH GRAVE</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&amp;#0021;&amp;#00A1;</t>
+  </si>
+  <si>
+    <t>1146</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ ∷</t>
+  </si>
+  <si>
+    <t>Ó CAPITAL LETTER O WITH ACUTE</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&amp;#2237;</t>
+  </si>
+  <si>
+    <t>1147</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ !.</t>
+  </si>
+  <si>
+    <t>™ TRADE MARK SIGN</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&amp;#0021;&amp;#2024;</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ :.</t>
+  </si>
+  <si>
+    <t>Í CAPITAL LETTER I WITH ACUTE</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&amp;#003A;&amp;#2024;</t>
+  </si>
+  <si>
+    <t>1149</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ :!</t>
+  </si>
+  <si>
+    <t>Ï CAPITAL LETTER I WITH DIAERESIS</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&amp;#003A;&amp;#0021;</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ ∣!</t>
+  </si>
+  <si>
+    <t>Ì CAPITAL LETTER I WITH GRAVE</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&amp;#2223;&amp;#0021;</t>
+  </si>
+  <si>
+    <t>1151</t>
+  </si>
+  <si>
+    <t>¦¦¦ ∣!</t>
+  </si>
+  <si>
+    <t>© Copyright sign</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#2223;&amp;#0021;</t>
+  </si>
+  <si>
+    <t>1152</t>
+  </si>
+  <si>
+    <t>¦¦¦ !∣</t>
+  </si>
+  <si>
+    <t>∆ INCREMENT</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#0021;&amp;#2223;</t>
+  </si>
+  <si>
+    <t>1153</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ !∣</t>
+  </si>
+  <si>
+    <t>ˆ MODIFIER LETTER CIRCUMFLEX ACCENT</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&amp;#0021;&amp;#2223;</t>
+  </si>
+  <si>
+    <t>1154</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ ¡:</t>
+  </si>
+  <si>
+    <t>ﬂ SMALL LIGATURE FL</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&amp;#00A1;&amp;#003A;</t>
+  </si>
+  <si>
+    <t>1155</t>
+  </si>
+  <si>
+    <t>¦¦¦ ¦!</t>
+  </si>
+  <si>
+    <t>œ SMALL LIGATURE OE</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#00A6;&amp;#0021;</t>
+  </si>
+  <si>
+    <t>1156</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">⋮⋮⋮ </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>¦!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Œ big LIGATURE OE</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&lt;u&gt;&amp;#00A6;&amp;#0021;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>¦¦¦ ¡¡</t>
+  </si>
+  <si>
+    <t>æ SMALL LETTER AE</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#00A1;&amp;#00A1;</t>
+  </si>
+  <si>
+    <t>1158</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">⋮⋮⋮ </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>¡¡</t>
+    </r>
+  </si>
+  <si>
+    <t>Æ big LETTER AE</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&lt;u&gt;&amp;#00A1;&amp;#00A1;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1159</t>
+  </si>
+  <si>
+    <t>LEFT &amp; Right SINGLE QUOTATION MARK</t>
+  </si>
+  <si>
+    <t>1160</t>
+  </si>
+  <si>
+    <t>„ LEFT Double QUOTATION MARK</t>
+  </si>
+  <si>
+    <t>1161</t>
+  </si>
+  <si>
+    <t>“ Right double QUOTATION MARK</t>
+  </si>
+  <si>
+    <t>1162</t>
+  </si>
+  <si>
+    <t>!¦. ∷.</t>
+  </si>
+  <si>
+    <t>ﬁ SMALL LIGATURE FI</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#00A6;&amp;#2024; +&amp;#2237;&amp;#2024;</t>
+  </si>
+  <si>
+    <t>1163</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">!:!∣ </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>:.</t>
+    </r>
+  </si>
+  <si>
+    <t>$ Dollar currency</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#003A;&amp;#0021;&amp;#2223; +&lt;u&gt;&amp;#003A;&amp;#2024;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1164</t>
+  </si>
+  <si>
+    <t>!:!∣ ‼︎</t>
+  </si>
+  <si>
+    <t>¢ cent sign</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#003A;&amp;#0021;&amp;#2223; +&amp;#203C;</t>
+  </si>
+  <si>
+    <t>1165</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">!:!∣ </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>¡:</t>
+    </r>
+  </si>
+  <si>
+    <t>£ Pound currency</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#003A;&amp;#0021;&amp;#2223; +&lt;u&gt;&amp;#00A1;&amp;#003A;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1166</t>
+  </si>
+  <si>
+    <t>!¦. ∣¦:</t>
+  </si>
+  <si>
+    <t>˜ small tilde</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#00A6;&amp;#2024; +&amp;#2223;&amp;#00A6;&amp;#003A;</t>
+  </si>
+  <si>
+    <t>1167</t>
+  </si>
+  <si>
+    <t>!¦. ∣¦¦</t>
+  </si>
+  <si>
+    <t>¯ macron</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#00A6;&amp;#2024; +&amp;#2223;&amp;#00A6;&amp;#00A6;</t>
+  </si>
+  <si>
+    <t>1168</t>
+  </si>
+  <si>
+    <t>˚ ring above</t>
+  </si>
+  <si>
+    <t>1169</t>
+  </si>
+  <si>
+    <t>!¡. ¯!¡-</t>
+  </si>
+  <si>
+    <t>´ ACUTE ACCENT</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;00A1;&amp;#2024; +&amp;#00AF;&amp;#0021;&amp;#00A1;&amp;#002D;</t>
+  </si>
+  <si>
+    <t>1170</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>!¡.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> ¯!¡-</t>
+    </r>
+  </si>
+  <si>
+    <t>` GRAVE ACCENT</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;#0021;&amp;00A1;&amp;#2024;&lt;/u&gt; +&amp;#00AF;&amp;#0021;&amp;#00A1;&amp;#002D;</t>
+  </si>
+  <si>
+    <t>1171</t>
+  </si>
+  <si>
+    <t>‘ left single Quote / Apostrophe</t>
+  </si>
+  <si>
+    <t>1172</t>
+  </si>
+  <si>
+    <t>« LEFT-POINTING DOUBLE ANGLE QUOTATION MARK</t>
+  </si>
+  <si>
+    <t>1173</t>
+  </si>
+  <si>
+    <t>» right-POINTING DOUBLE ANGLE QUOTATION MARK</t>
+  </si>
+  <si>
+    <t>1174</t>
+  </si>
+  <si>
+    <t>¦¦¦ ¡∣</t>
+  </si>
+  <si>
+    <t>∑ N-ARY SUMMATION</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#00A1;&amp;#2223;</t>
+  </si>
+  <si>
+    <t>1175</t>
+  </si>
+  <si>
+    <t>„ DOUBLE LOW-9 QUOTATION MARK</t>
+  </si>
+  <si>
+    <t>1176</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">!:!∣ </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>€ Euro currency</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#003A;&amp;#0021; +&lt;u&gt;&amp;#2024;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1177</t>
+  </si>
+  <si>
+    <t>¦¦¦ ¡.</t>
+  </si>
+  <si>
+    <t>® registered mark</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#00A1;&amp;#2024;</t>
+  </si>
+  <si>
+    <t>1178</t>
+  </si>
+  <si>
+    <t>SINGLE LOW-9 QUOTATION MARK</t>
+  </si>
+  <si>
+    <t>1179</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ !!</t>
+  </si>
+  <si>
+    <t>˘ breve</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ ¯!¡_</t>
+  </si>
+  <si>
+    <t>˛ ogonek</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&amp;#00AF;&amp;#0021;&amp;#00A1;&amp;#005F;</t>
+  </si>
+  <si>
+    <t>1181</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ ¡.</t>
+  </si>
+  <si>
+    <t>¸ cedilla</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&amp;#00A1;&amp;#2024;</t>
+  </si>
+  <si>
+    <t>1182</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ ∣</t>
+  </si>
+  <si>
+    <t>˝ DOUBLE ACUTE ACCENT</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&amp;#2223;</t>
+  </si>
+  <si>
+    <t>1183</t>
+  </si>
+  <si>
+    <t>¦¦¦ ¦:</t>
+  </si>
+  <si>
+    <t>Ω GREEK CAPITAL LETTER OMEGA</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#00A6;&amp;#003A;</t>
+  </si>
+  <si>
+    <t>1184</t>
+  </si>
+  <si>
+    <t>ˇ Caron</t>
+  </si>
+  <si>
+    <t>1185</t>
+  </si>
+  <si>
+    <t>¦¦¦ :∣</t>
+  </si>
+  <si>
+    <t>¨ DIAERESIS</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#003A;&amp;#2223;</t>
+  </si>
+  <si>
+    <t>1186</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ :∣</t>
+  </si>
+  <si>
+    <t>Á CAPITAL LETTER A WITH ACUTE</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&amp;#003A;&amp;#2223;</t>
+  </si>
+  <si>
+    <t>1187</t>
+  </si>
+  <si>
+    <t>⁄ FRACTION SLASH</t>
+  </si>
+  <si>
+    <t>1188</t>
+  </si>
+  <si>
+    <t>⋮⋮⋮ :</t>
+  </si>
+  <si>
+    <t>Û CAPITAL LETTER U WITH CIRCUMFLEX</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&amp;#003A;</t>
+  </si>
+  <si>
+    <t>1189</t>
+  </si>
+  <si>
+    <t>¦¦¦ ¡¡.</t>
+  </si>
+  <si>
+    <t>± PLUS-MINUS SIGN</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#00A1;&amp;#00A1;&amp;#2024;</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>¦¦¦ :∣_</t>
+  </si>
+  <si>
+    <t>• bullet</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#003A;&amp;#2223;&amp;#005F;</t>
+  </si>
+  <si>
+    <t>1191</t>
+  </si>
+  <si>
+    <t>¦¦¦ ¦¦∣</t>
+  </si>
+  <si>
+    <t>ø SMALL LETTER O WITH STROKE</t>
+  </si>
+  <si>
+    <t>&amp;#00A6;&amp;#00A6;&amp;#00A6; +&amp;#00A6;&amp;#00A6;&amp;#2223;</t>
+  </si>
+  <si>
+    <t>1192</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">⋮⋮⋮ </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>¦∣</t>
+    </r>
+  </si>
+  <si>
+    <t>Ø CAPITAL LETTER O WITH STROKE</t>
+  </si>
+  <si>
+    <t>&amp;#22EE;&amp;#22EE;&amp;#22EE; +&lt;u&gt;&amp;#00A6;&amp;#2223;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1193</t>
+  </si>
+  <si>
+    <t>!:!∣ ¡!</t>
+  </si>
+  <si>
+    <t>π SMALL LETTER phi</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#003A;&amp;#0021;&amp;#2223; +&amp;#00A1;&amp;0021;</t>
+  </si>
+  <si>
+    <t>1194</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">!:!∣ </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>¡!</t>
+    </r>
+  </si>
+  <si>
+    <t>∏ N-ARY PRODUCT</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#003A;&amp;#0021;&amp;#2223; +&lt;u&gt;&amp;#00A1;&amp;0021;&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>1195</t>
+  </si>
+  <si>
+    <t>!:!∣ ∣¦¦</t>
+  </si>
+  <si>
+    <t>∅ EMPTY SET</t>
+  </si>
+  <si>
+    <t>&amp;#0021;&amp;#003A;&amp;#0021;&amp;#2223; +&amp;#2223;&amp;#00A6;&amp;#00A6;</t>
   </si>
 </sst>
 </file>
@@ -12271,7 +14506,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -12330,6 +14565,23 @@
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="leporellion-newmorse"/>
     </font>
   </fonts>
   <fills count="3">
@@ -12495,7 +14747,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -12559,8 +14811,26 @@
     <xf numFmtId="49" fontId="10" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13643,7 +15913,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1054"/>
+  <dimension ref="A1:F1196"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -31836,605 +34106,3461 @@
         <v>3977</v>
       </c>
     </row>
-    <row r="1005" ht="23.15" customHeight="1">
+    <row r="1005" ht="24.1" customHeight="1">
       <c r="A1005" t="s" s="10">
         <v>3978</v>
       </c>
-      <c r="B1005" s="21"/>
-      <c r="C1005" s="13"/>
+      <c r="B1005" t="s" s="21">
+        <v>3979</v>
+      </c>
+      <c r="C1005" t="s" s="12">
+        <v>3980</v>
+      </c>
       <c r="D1005" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1005" s="13"/>
-      <c r="F1005" s="13"/>
-    </row>
-    <row r="1006" ht="23.15" customHeight="1">
+      <c r="F1005" t="s" s="12">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="1006" ht="24.6" customHeight="1">
       <c r="A1006" t="s" s="10">
-        <v>3979</v>
-      </c>
-      <c r="B1006" s="21"/>
-      <c r="C1006" s="13"/>
+        <v>3982</v>
+      </c>
+      <c r="B1006" t="s" s="22">
+        <v>3983</v>
+      </c>
+      <c r="C1006" t="s" s="12">
+        <v>3984</v>
+      </c>
       <c r="D1006" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1006" s="13"/>
-      <c r="F1006" s="13"/>
-    </row>
-    <row r="1007" ht="23.15" customHeight="1">
+      <c r="F1006" t="s" s="12">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="1007" ht="24.1" customHeight="1">
       <c r="A1007" t="s" s="10">
-        <v>3980</v>
-      </c>
-      <c r="B1007" s="21"/>
-      <c r="C1007" s="13"/>
+        <v>3986</v>
+      </c>
+      <c r="B1007" t="s" s="23">
+        <v>3979</v>
+      </c>
+      <c r="C1007" t="s" s="12">
+        <v>3987</v>
+      </c>
       <c r="D1007" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1007" s="13"/>
-      <c r="F1007" s="13"/>
+      <c r="F1007" t="s" s="12">
+        <v>3988</v>
+      </c>
     </row>
     <row r="1008" ht="23.15" customHeight="1">
       <c r="A1008" t="s" s="10">
-        <v>3981</v>
-      </c>
-      <c r="B1008" s="21"/>
-      <c r="C1008" s="13"/>
+        <v>3989</v>
+      </c>
+      <c r="B1008" t="s" s="11">
+        <v>3979</v>
+      </c>
+      <c r="C1008" t="s" s="12">
+        <v>3990</v>
+      </c>
       <c r="D1008" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1008" s="13"/>
-      <c r="F1008" s="13"/>
+      <c r="F1008" t="s" s="12">
+        <v>3988</v>
+      </c>
     </row>
     <row r="1009" ht="23.15" customHeight="1">
       <c r="A1009" t="s" s="10">
-        <v>3982</v>
-      </c>
-      <c r="B1009" s="21"/>
-      <c r="C1009" s="13"/>
+        <v>3991</v>
+      </c>
+      <c r="B1009" t="s" s="11">
+        <v>3979</v>
+      </c>
+      <c r="C1009" t="s" s="12">
+        <v>3992</v>
+      </c>
       <c r="D1009" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1009" s="13"/>
-      <c r="F1009" s="13"/>
+      <c r="F1009" t="s" s="12">
+        <v>3988</v>
+      </c>
     </row>
     <row r="1010" ht="23.15" customHeight="1">
       <c r="A1010" t="s" s="10">
-        <v>3983</v>
-      </c>
-      <c r="B1010" s="21"/>
-      <c r="C1010" s="13"/>
+        <v>3993</v>
+      </c>
+      <c r="B1010" t="s" s="11">
+        <v>3994</v>
+      </c>
+      <c r="C1010" t="s" s="12">
+        <v>3995</v>
+      </c>
       <c r="D1010" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1010" s="13"/>
-      <c r="F1010" s="13"/>
+      <c r="F1010" t="s" s="12">
+        <v>3996</v>
+      </c>
     </row>
     <row r="1011" ht="23.15" customHeight="1">
       <c r="A1011" t="s" s="10">
-        <v>3984</v>
-      </c>
-      <c r="B1011" s="21"/>
-      <c r="C1011" s="13"/>
+        <v>3997</v>
+      </c>
+      <c r="B1011" t="s" s="24">
+        <v>3998</v>
+      </c>
+      <c r="C1011" t="s" s="12">
+        <v>3999</v>
+      </c>
       <c r="D1011" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1011" s="13"/>
-      <c r="F1011" s="13"/>
+      <c r="F1011" t="s" s="12">
+        <v>4000</v>
+      </c>
     </row>
     <row r="1012" ht="23.15" customHeight="1">
       <c r="A1012" t="s" s="10">
-        <v>3985</v>
-      </c>
-      <c r="B1012" s="21"/>
-      <c r="C1012" s="13"/>
+        <v>4001</v>
+      </c>
+      <c r="B1012" t="s" s="11">
+        <v>4002</v>
+      </c>
+      <c r="C1012" t="s" s="12">
+        <v>4003</v>
+      </c>
       <c r="D1012" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1012" s="13"/>
-      <c r="F1012" s="13"/>
+      <c r="F1012" t="s" s="12">
+        <v>4004</v>
+      </c>
     </row>
     <row r="1013" ht="23.15" customHeight="1">
       <c r="A1013" t="s" s="10">
-        <v>3986</v>
-      </c>
-      <c r="B1013" s="21"/>
-      <c r="C1013" s="13"/>
+        <v>4005</v>
+      </c>
+      <c r="B1013" t="s" s="11">
+        <v>4006</v>
+      </c>
+      <c r="C1013" t="s" s="12">
+        <v>4007</v>
+      </c>
       <c r="D1013" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1013" s="13"/>
-      <c r="F1013" s="13"/>
+      <c r="F1013" t="s" s="12">
+        <v>4008</v>
+      </c>
     </row>
     <row r="1014" ht="23.15" customHeight="1">
       <c r="A1014" t="s" s="10">
-        <v>3987</v>
-      </c>
-      <c r="B1014" s="21"/>
-      <c r="C1014" s="13"/>
+        <v>4009</v>
+      </c>
+      <c r="B1014" t="s" s="11">
+        <v>4010</v>
+      </c>
+      <c r="C1014" t="s" s="12">
+        <v>4011</v>
+      </c>
       <c r="D1014" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1014" s="13"/>
-      <c r="F1014" s="13"/>
+      <c r="F1014" t="s" s="12">
+        <v>4012</v>
+      </c>
     </row>
     <row r="1015" ht="23.15" customHeight="1">
       <c r="A1015" t="s" s="10">
-        <v>3988</v>
-      </c>
-      <c r="B1015" s="21"/>
-      <c r="C1015" s="13"/>
+        <v>4013</v>
+      </c>
+      <c r="B1015" t="s" s="11">
+        <v>4014</v>
+      </c>
+      <c r="C1015" t="s" s="12">
+        <v>4015</v>
+      </c>
       <c r="D1015" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1015" s="13"/>
-      <c r="F1015" s="13"/>
+      <c r="F1015" t="s" s="12">
+        <v>4016</v>
+      </c>
     </row>
     <row r="1016" ht="23.15" customHeight="1">
       <c r="A1016" t="s" s="10">
-        <v>3989</v>
-      </c>
-      <c r="B1016" s="21"/>
-      <c r="C1016" s="13"/>
+        <v>4017</v>
+      </c>
+      <c r="B1016" t="s" s="11">
+        <v>4018</v>
+      </c>
+      <c r="C1016" t="s" s="12">
+        <v>4019</v>
+      </c>
       <c r="D1016" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1016" s="13"/>
-      <c r="F1016" s="13"/>
+      <c r="F1016" t="s" s="12">
+        <v>4020</v>
+      </c>
     </row>
     <row r="1017" ht="23.15" customHeight="1">
       <c r="A1017" t="s" s="10">
-        <v>3990</v>
-      </c>
-      <c r="B1017" s="21"/>
-      <c r="C1017" s="13"/>
+        <v>4021</v>
+      </c>
+      <c r="B1017" t="s" s="11">
+        <v>4022</v>
+      </c>
+      <c r="C1017" t="s" s="12">
+        <v>4023</v>
+      </c>
       <c r="D1017" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1017" s="13"/>
-      <c r="F1017" s="13"/>
+      <c r="F1017" t="s" s="12">
+        <v>4024</v>
+      </c>
     </row>
     <row r="1018" ht="23.15" customHeight="1">
       <c r="A1018" t="s" s="10">
-        <v>3991</v>
-      </c>
-      <c r="B1018" s="21"/>
-      <c r="C1018" s="13"/>
+        <v>4025</v>
+      </c>
+      <c r="B1018" t="s" s="11">
+        <v>4026</v>
+      </c>
+      <c r="C1018" t="s" s="12">
+        <v>4027</v>
+      </c>
       <c r="D1018" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1018" s="13"/>
-      <c r="F1018" s="13"/>
+      <c r="F1018" t="s" s="12">
+        <v>4028</v>
+      </c>
     </row>
     <row r="1019" ht="23.15" customHeight="1">
       <c r="A1019" t="s" s="10">
-        <v>3992</v>
-      </c>
-      <c r="B1019" s="21"/>
-      <c r="C1019" s="13"/>
+        <v>4029</v>
+      </c>
+      <c r="B1019" t="s" s="11">
+        <v>4030</v>
+      </c>
+      <c r="C1019" t="s" s="12">
+        <v>4031</v>
+      </c>
       <c r="D1019" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1019" s="13"/>
-      <c r="F1019" s="13"/>
+      <c r="F1019" t="s" s="12">
+        <v>4032</v>
+      </c>
     </row>
     <row r="1020" ht="23.15" customHeight="1">
       <c r="A1020" t="s" s="10">
-        <v>3993</v>
-      </c>
-      <c r="B1020" s="21"/>
-      <c r="C1020" s="13"/>
+        <v>4033</v>
+      </c>
+      <c r="B1020" t="s" s="11">
+        <v>4034</v>
+      </c>
+      <c r="C1020" t="s" s="12">
+        <v>4035</v>
+      </c>
       <c r="D1020" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1020" s="13"/>
-      <c r="F1020" s="13"/>
+      <c r="F1020" t="s" s="12">
+        <v>4036</v>
+      </c>
     </row>
     <row r="1021" ht="23.15" customHeight="1">
       <c r="A1021" t="s" s="10">
-        <v>3994</v>
-      </c>
-      <c r="B1021" s="21"/>
-      <c r="C1021" s="13"/>
+        <v>4037</v>
+      </c>
+      <c r="B1021" t="s" s="11">
+        <v>3998</v>
+      </c>
+      <c r="C1021" t="s" s="12">
+        <v>4038</v>
+      </c>
       <c r="D1021" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1021" s="13"/>
-      <c r="F1021" s="13"/>
+      <c r="F1021" t="s" s="12">
+        <v>4039</v>
+      </c>
     </row>
     <row r="1022" ht="23.15" customHeight="1">
       <c r="A1022" t="s" s="10">
-        <v>3995</v>
-      </c>
-      <c r="B1022" s="21"/>
-      <c r="C1022" s="13"/>
+        <v>4040</v>
+      </c>
+      <c r="B1022" t="s" s="24">
+        <v>234</v>
+      </c>
+      <c r="C1022" t="s" s="12">
+        <v>4041</v>
+      </c>
       <c r="D1022" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1022" s="13"/>
-      <c r="F1022" s="13"/>
+      <c r="F1022" t="s" s="12">
+        <v>4042</v>
+      </c>
     </row>
     <row r="1023" ht="23.15" customHeight="1">
       <c r="A1023" t="s" s="10">
-        <v>3996</v>
-      </c>
-      <c r="B1023" s="21"/>
-      <c r="C1023" s="13"/>
+        <v>4043</v>
+      </c>
+      <c r="B1023" t="s" s="11">
+        <v>234</v>
+      </c>
+      <c r="C1023" t="s" s="12">
+        <v>4044</v>
+      </c>
       <c r="D1023" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1023" s="13"/>
-      <c r="F1023" s="13"/>
+      <c r="F1023" t="s" s="12">
+        <v>4045</v>
+      </c>
     </row>
     <row r="1024" ht="23.15" customHeight="1">
       <c r="A1024" t="s" s="10">
-        <v>3997</v>
-      </c>
-      <c r="B1024" s="21"/>
-      <c r="C1024" s="13"/>
+        <v>4046</v>
+      </c>
+      <c r="B1024" t="s" s="11">
+        <v>4047</v>
+      </c>
+      <c r="C1024" t="s" s="12">
+        <v>4048</v>
+      </c>
       <c r="D1024" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1024" s="13"/>
-      <c r="F1024" s="13"/>
-    </row>
-    <row r="1025" ht="23.15" customHeight="1">
+      <c r="F1024" t="s" s="12">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="1025" ht="36.15" customHeight="1">
       <c r="A1025" t="s" s="10">
-        <v>3998</v>
-      </c>
-      <c r="B1025" s="21"/>
-      <c r="C1025" s="13"/>
+        <v>4050</v>
+      </c>
+      <c r="B1025" t="s" s="11">
+        <v>4051</v>
+      </c>
+      <c r="C1025" t="s" s="12">
+        <v>4052</v>
+      </c>
       <c r="D1025" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1025" s="13"/>
-      <c r="F1025" s="13"/>
+      <c r="F1025" t="s" s="12">
+        <v>4053</v>
+      </c>
     </row>
     <row r="1026" ht="23.15" customHeight="1">
       <c r="A1026" t="s" s="10">
-        <v>3999</v>
-      </c>
-      <c r="B1026" s="21"/>
-      <c r="C1026" s="13"/>
+        <v>4054</v>
+      </c>
+      <c r="B1026" t="s" s="11">
+        <v>4055</v>
+      </c>
+      <c r="C1026" t="s" s="12">
+        <v>4056</v>
+      </c>
       <c r="D1026" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1026" s="13"/>
-      <c r="F1026" s="13"/>
+      <c r="F1026" t="s" s="12">
+        <v>4057</v>
+      </c>
     </row>
     <row r="1027" ht="23.15" customHeight="1">
       <c r="A1027" t="s" s="10">
-        <v>4000</v>
-      </c>
-      <c r="B1027" s="21"/>
-      <c r="C1027" s="13"/>
+        <v>4058</v>
+      </c>
+      <c r="B1027" t="s" s="24">
+        <v>260</v>
+      </c>
+      <c r="C1027" t="s" s="12">
+        <v>4059</v>
+      </c>
       <c r="D1027" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1027" s="13"/>
-      <c r="F1027" s="13"/>
+      <c r="F1027" t="s" s="12">
+        <v>4060</v>
+      </c>
     </row>
     <row r="1028" ht="23.15" customHeight="1">
       <c r="A1028" t="s" s="10">
-        <v>4001</v>
-      </c>
-      <c r="B1028" s="21"/>
-      <c r="C1028" s="13"/>
+        <v>4061</v>
+      </c>
+      <c r="B1028" t="s" s="11">
+        <v>4062</v>
+      </c>
+      <c r="C1028" t="s" s="12">
+        <v>4063</v>
+      </c>
       <c r="D1028" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1028" s="13"/>
-      <c r="F1028" s="13"/>
+      <c r="F1028" t="s" s="12">
+        <v>4064</v>
+      </c>
     </row>
     <row r="1029" ht="23.15" customHeight="1">
       <c r="A1029" t="s" s="10">
-        <v>4002</v>
-      </c>
-      <c r="B1029" s="21"/>
-      <c r="C1029" s="13"/>
+        <v>4065</v>
+      </c>
+      <c r="B1029" t="s" s="25">
+        <v>292</v>
+      </c>
+      <c r="C1029" t="s" s="19">
+        <v>4066</v>
+      </c>
       <c r="D1029" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1029" s="13"/>
-      <c r="F1029" s="13"/>
+      <c r="F1029" t="s" s="12">
+        <v>4067</v>
+      </c>
     </row>
     <row r="1030" ht="23.15" customHeight="1">
       <c r="A1030" t="s" s="10">
-        <v>4003</v>
-      </c>
-      <c r="B1030" s="21"/>
-      <c r="C1030" s="13"/>
+        <v>4068</v>
+      </c>
+      <c r="B1030" t="s" s="25">
+        <v>4069</v>
+      </c>
+      <c r="C1030" t="s" s="19">
+        <v>4070</v>
+      </c>
       <c r="D1030" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1030" s="13"/>
-      <c r="F1030" s="13"/>
+      <c r="F1030" t="s" s="12">
+        <v>4071</v>
+      </c>
     </row>
     <row r="1031" ht="23.15" customHeight="1">
       <c r="A1031" t="s" s="10">
-        <v>4004</v>
-      </c>
-      <c r="B1031" s="21"/>
-      <c r="C1031" s="13"/>
+        <v>4072</v>
+      </c>
+      <c r="B1031" t="s" s="25">
+        <v>4073</v>
+      </c>
+      <c r="C1031" t="s" s="19">
+        <v>4074</v>
+      </c>
       <c r="D1031" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1031" s="13"/>
-      <c r="F1031" s="13"/>
+      <c r="F1031" t="s" s="12">
+        <v>4075</v>
+      </c>
     </row>
     <row r="1032" ht="23.15" customHeight="1">
       <c r="A1032" t="s" s="10">
-        <v>4005</v>
-      </c>
-      <c r="B1032" s="21"/>
-      <c r="C1032" s="13"/>
+        <v>4076</v>
+      </c>
+      <c r="B1032" t="s" s="25">
+        <v>4077</v>
+      </c>
+      <c r="C1032" t="s" s="19">
+        <v>4078</v>
+      </c>
       <c r="D1032" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1032" s="13"/>
-      <c r="F1032" s="13"/>
+      <c r="F1032" t="s" s="12">
+        <v>4079</v>
+      </c>
     </row>
     <row r="1033" ht="23.15" customHeight="1">
       <c r="A1033" t="s" s="10">
-        <v>4006</v>
-      </c>
-      <c r="B1033" s="21"/>
-      <c r="C1033" s="13"/>
+        <v>4080</v>
+      </c>
+      <c r="B1033" t="s" s="26">
+        <v>4077</v>
+      </c>
+      <c r="C1033" t="s" s="19">
+        <v>4081</v>
+      </c>
       <c r="D1033" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1033" s="13"/>
-      <c r="F1033" s="13"/>
+      <c r="F1033" t="s" s="12">
+        <v>4082</v>
+      </c>
     </row>
     <row r="1034" ht="23.15" customHeight="1">
       <c r="A1034" t="s" s="10">
-        <v>4007</v>
-      </c>
-      <c r="B1034" s="21"/>
-      <c r="C1034" s="13"/>
+        <v>4083</v>
+      </c>
+      <c r="B1034" t="s" s="25">
+        <v>4084</v>
+      </c>
+      <c r="C1034" t="s" s="19">
+        <v>4085</v>
+      </c>
       <c r="D1034" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1034" s="13"/>
-      <c r="F1034" s="13"/>
+      <c r="F1034" t="s" s="12">
+        <v>4086</v>
+      </c>
     </row>
     <row r="1035" ht="23.15" customHeight="1">
       <c r="A1035" t="s" s="10">
-        <v>4008</v>
-      </c>
-      <c r="B1035" s="21"/>
-      <c r="C1035" s="13"/>
+        <v>4087</v>
+      </c>
+      <c r="B1035" t="s" s="25">
+        <v>4088</v>
+      </c>
+      <c r="C1035" t="s" s="19">
+        <v>4089</v>
+      </c>
       <c r="D1035" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1035" s="13"/>
-      <c r="F1035" s="13"/>
+      <c r="F1035" t="s" s="12">
+        <v>4090</v>
+      </c>
     </row>
     <row r="1036" ht="23.15" customHeight="1">
       <c r="A1036" t="s" s="10">
-        <v>4009</v>
-      </c>
-      <c r="B1036" s="21"/>
-      <c r="C1036" s="13"/>
+        <v>4091</v>
+      </c>
+      <c r="B1036" t="s" s="26">
+        <v>4088</v>
+      </c>
+      <c r="C1036" t="s" s="19">
+        <v>4092</v>
+      </c>
       <c r="D1036" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1036" s="13"/>
-      <c r="F1036" s="13"/>
+      <c r="F1036" t="s" s="12">
+        <v>4093</v>
+      </c>
     </row>
     <row r="1037" ht="23.15" customHeight="1">
       <c r="A1037" t="s" s="10">
-        <v>4010</v>
-      </c>
-      <c r="B1037" s="21"/>
-      <c r="C1037" s="13"/>
+        <v>4094</v>
+      </c>
+      <c r="B1037" t="s" s="26">
+        <v>4095</v>
+      </c>
+      <c r="C1037" t="s" s="19">
+        <v>4096</v>
+      </c>
       <c r="D1037" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1037" s="13"/>
-      <c r="F1037" s="13"/>
+      <c r="F1037" t="s" s="12">
+        <v>4097</v>
+      </c>
     </row>
     <row r="1038" ht="23.15" customHeight="1">
       <c r="A1038" t="s" s="10">
-        <v>4011</v>
-      </c>
-      <c r="B1038" s="21"/>
-      <c r="C1038" s="13"/>
+        <v>4098</v>
+      </c>
+      <c r="B1038" t="s" s="25">
+        <v>4095</v>
+      </c>
+      <c r="C1038" t="s" s="19">
+        <v>4099</v>
+      </c>
       <c r="D1038" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1038" s="13"/>
-      <c r="F1038" s="13"/>
+      <c r="F1038" t="s" s="12">
+        <v>4100</v>
+      </c>
     </row>
     <row r="1039" ht="23.15" customHeight="1">
       <c r="A1039" t="s" s="10">
-        <v>4012</v>
-      </c>
-      <c r="B1039" s="21"/>
-      <c r="C1039" s="13"/>
+        <v>4101</v>
+      </c>
+      <c r="B1039" t="s" s="25">
+        <v>4102</v>
+      </c>
+      <c r="C1039" t="s" s="19">
+        <v>4103</v>
+      </c>
       <c r="D1039" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1039" s="13"/>
-      <c r="F1039" s="13"/>
+      <c r="F1039" t="s" s="12">
+        <v>4104</v>
+      </c>
     </row>
     <row r="1040" ht="23.15" customHeight="1">
       <c r="A1040" t="s" s="10">
-        <v>4013</v>
-      </c>
-      <c r="B1040" s="21"/>
-      <c r="C1040" s="13"/>
+        <v>4105</v>
+      </c>
+      <c r="B1040" t="s" s="27">
+        <v>4102</v>
+      </c>
+      <c r="C1040" t="s" s="19">
+        <v>4106</v>
+      </c>
       <c r="D1040" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1040" s="13"/>
-      <c r="F1040" s="13"/>
+      <c r="F1040" t="s" s="12">
+        <v>4107</v>
+      </c>
     </row>
     <row r="1041" ht="23.15" customHeight="1">
       <c r="A1041" t="s" s="10">
-        <v>4014</v>
-      </c>
-      <c r="B1041" s="21"/>
-      <c r="C1041" s="13"/>
+        <v>4108</v>
+      </c>
+      <c r="B1041" t="s" s="11">
+        <v>4109</v>
+      </c>
+      <c r="C1041" t="s" s="12">
+        <v>4110</v>
+      </c>
       <c r="D1041" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1041" s="13"/>
-      <c r="F1041" s="13"/>
+      <c r="F1041" t="s" s="12">
+        <v>4111</v>
+      </c>
     </row>
     <row r="1042" ht="23.15" customHeight="1">
       <c r="A1042" t="s" s="10">
-        <v>4015</v>
-      </c>
-      <c r="B1042" s="21"/>
-      <c r="C1042" s="13"/>
+        <v>4112</v>
+      </c>
+      <c r="B1042" t="s" s="24">
+        <v>4109</v>
+      </c>
+      <c r="C1042" t="s" s="12">
+        <v>4113</v>
+      </c>
       <c r="D1042" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1042" s="13"/>
-      <c r="F1042" s="13"/>
+      <c r="F1042" t="s" s="12">
+        <v>4114</v>
+      </c>
     </row>
     <row r="1043" ht="23.15" customHeight="1">
       <c r="A1043" t="s" s="10">
-        <v>4016</v>
-      </c>
-      <c r="B1043" s="21"/>
-      <c r="C1043" s="13"/>
+        <v>4115</v>
+      </c>
+      <c r="B1043" t="s" s="11">
+        <v>4116</v>
+      </c>
+      <c r="C1043" t="s" s="12">
+        <v>4117</v>
+      </c>
       <c r="D1043" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1043" s="13"/>
-      <c r="F1043" s="13"/>
+      <c r="F1043" t="s" s="12">
+        <v>4118</v>
+      </c>
     </row>
     <row r="1044" ht="23.15" customHeight="1">
       <c r="A1044" t="s" s="10">
-        <v>4017</v>
-      </c>
-      <c r="B1044" s="21"/>
-      <c r="C1044" s="13"/>
+        <v>4119</v>
+      </c>
+      <c r="B1044" t="s" s="11">
+        <v>4120</v>
+      </c>
+      <c r="C1044" t="s" s="12">
+        <v>4121</v>
+      </c>
       <c r="D1044" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1044" s="13"/>
-      <c r="F1044" s="13"/>
+      <c r="F1044" t="s" s="12">
+        <v>4122</v>
+      </c>
     </row>
     <row r="1045" ht="23.15" customHeight="1">
       <c r="A1045" t="s" s="10">
-        <v>4018</v>
-      </c>
-      <c r="B1045" s="21"/>
-      <c r="C1045" s="13"/>
+        <v>4123</v>
+      </c>
+      <c r="B1045" t="s" s="24">
+        <v>4120</v>
+      </c>
+      <c r="C1045" t="s" s="12">
+        <v>4124</v>
+      </c>
       <c r="D1045" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1045" s="13"/>
-      <c r="F1045" s="13"/>
+      <c r="F1045" t="s" s="12">
+        <v>4125</v>
+      </c>
     </row>
     <row r="1046" ht="23.15" customHeight="1">
       <c r="A1046" t="s" s="10">
-        <v>4019</v>
-      </c>
-      <c r="B1046" s="21"/>
-      <c r="C1046" s="13"/>
+        <v>4126</v>
+      </c>
+      <c r="B1046" t="s" s="11">
+        <v>4127</v>
+      </c>
+      <c r="C1046" t="s" s="12">
+        <v>4128</v>
+      </c>
       <c r="D1046" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1046" s="13"/>
-      <c r="F1046" s="13"/>
+      <c r="F1046" t="s" s="12">
+        <v>4129</v>
+      </c>
     </row>
     <row r="1047" ht="23.15" customHeight="1">
       <c r="A1047" t="s" s="10">
-        <v>4020</v>
-      </c>
-      <c r="B1047" s="21"/>
-      <c r="C1047" s="13"/>
+        <v>4130</v>
+      </c>
+      <c r="B1047" t="s" s="24">
+        <v>4127</v>
+      </c>
+      <c r="C1047" t="s" s="12">
+        <v>4131</v>
+      </c>
       <c r="D1047" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1047" s="13"/>
-      <c r="F1047" s="13"/>
+      <c r="F1047" t="s" s="12">
+        <v>4132</v>
+      </c>
     </row>
     <row r="1048" ht="23.15" customHeight="1">
       <c r="A1048" t="s" s="10">
-        <v>4021</v>
-      </c>
-      <c r="B1048" s="21"/>
-      <c r="C1048" s="13"/>
+        <v>4133</v>
+      </c>
+      <c r="B1048" t="s" s="11">
+        <v>69</v>
+      </c>
+      <c r="C1048" t="s" s="12">
+        <v>4134</v>
+      </c>
       <c r="D1048" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1048" s="13"/>
-      <c r="F1048" s="13"/>
+      <c r="F1048" t="s" s="12">
+        <v>3935</v>
+      </c>
     </row>
     <row r="1049" ht="23.15" customHeight="1">
       <c r="A1049" t="s" s="10">
-        <v>4022</v>
-      </c>
-      <c r="B1049" s="21"/>
-      <c r="C1049" s="13"/>
+        <v>4135</v>
+      </c>
+      <c r="B1049" t="s" s="24">
+        <v>69</v>
+      </c>
+      <c r="C1049" t="s" s="12">
+        <v>4136</v>
+      </c>
       <c r="D1049" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1049" s="13"/>
-      <c r="F1049" s="13"/>
+      <c r="F1049" t="s" s="12">
+        <v>4137</v>
+      </c>
     </row>
     <row r="1050" ht="23.15" customHeight="1">
       <c r="A1050" t="s" s="10">
-        <v>4023</v>
-      </c>
-      <c r="B1050" s="21"/>
-      <c r="C1050" s="13"/>
+        <v>4138</v>
+      </c>
+      <c r="B1050" t="s" s="11">
+        <v>4139</v>
+      </c>
+      <c r="C1050" t="s" s="12">
+        <v>4140</v>
+      </c>
       <c r="D1050" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1050" s="13"/>
-      <c r="F1050" s="13"/>
+      <c r="F1050" t="s" s="12">
+        <v>4141</v>
+      </c>
     </row>
     <row r="1051" ht="23.15" customHeight="1">
       <c r="A1051" t="s" s="10">
-        <v>4024</v>
-      </c>
-      <c r="B1051" s="21"/>
-      <c r="C1051" s="13"/>
+        <v>4142</v>
+      </c>
+      <c r="B1051" t="s" s="24">
+        <v>4139</v>
+      </c>
+      <c r="C1051" t="s" s="12">
+        <v>4143</v>
+      </c>
       <c r="D1051" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1051" s="13"/>
-      <c r="F1051" s="13"/>
+      <c r="F1051" t="s" s="12">
+        <v>4144</v>
+      </c>
     </row>
     <row r="1052" ht="23.15" customHeight="1">
       <c r="A1052" t="s" s="10">
-        <v>4025</v>
-      </c>
-      <c r="B1052" s="21"/>
-      <c r="C1052" s="13"/>
+        <v>4145</v>
+      </c>
+      <c r="B1052" t="s" s="11">
+        <v>265</v>
+      </c>
+      <c r="C1052" t="s" s="12">
+        <v>4146</v>
+      </c>
       <c r="D1052" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1052" s="13"/>
-      <c r="F1052" s="13"/>
+      <c r="F1052" t="s" s="12">
+        <v>4147</v>
+      </c>
     </row>
     <row r="1053" ht="23.15" customHeight="1">
       <c r="A1053" t="s" s="10">
-        <v>4026</v>
-      </c>
-      <c r="B1053" s="21"/>
-      <c r="C1053" s="13"/>
+        <v>4148</v>
+      </c>
+      <c r="B1053" t="s" s="11">
+        <v>269</v>
+      </c>
+      <c r="C1053" t="s" s="12">
+        <v>4149</v>
+      </c>
       <c r="D1053" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1053" s="13"/>
-      <c r="F1053" s="13"/>
+      <c r="F1053" t="s" s="12">
+        <v>4150</v>
+      </c>
     </row>
     <row r="1054" ht="23.15" customHeight="1">
       <c r="A1054" t="s" s="10">
-        <v>4027</v>
-      </c>
-      <c r="B1054" s="21"/>
-      <c r="C1054" s="13"/>
+        <v>4151</v>
+      </c>
+      <c r="B1054" t="s" s="11">
+        <v>4152</v>
+      </c>
+      <c r="C1054" t="s" s="12">
+        <v>4153</v>
+      </c>
       <c r="D1054" t="s" s="12">
         <v>57</v>
       </c>
       <c r="E1054" s="13"/>
-      <c r="F1054" s="13"/>
+      <c r="F1054" t="s" s="12">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="1055" ht="23.15" customHeight="1">
+      <c r="A1055" t="s" s="10">
+        <v>4155</v>
+      </c>
+      <c r="B1055" t="s" s="11">
+        <v>74</v>
+      </c>
+      <c r="C1055" t="s" s="12">
+        <v>4156</v>
+      </c>
+      <c r="D1055" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1055" s="13"/>
+      <c r="F1055" t="s" s="12">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="1056" ht="23.15" customHeight="1">
+      <c r="A1056" t="s" s="10">
+        <v>4158</v>
+      </c>
+      <c r="B1056" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="C1056" t="s" s="12">
+        <v>4159</v>
+      </c>
+      <c r="D1056" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1056" s="13"/>
+      <c r="F1056" t="s" s="12">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="1057" ht="23.15" customHeight="1">
+      <c r="A1057" t="s" s="10">
+        <v>4161</v>
+      </c>
+      <c r="B1057" t="s" s="11">
+        <v>124</v>
+      </c>
+      <c r="C1057" t="s" s="12">
+        <v>4162</v>
+      </c>
+      <c r="D1057" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1057" s="13"/>
+      <c r="F1057" t="s" s="12">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="1058" ht="23.15" customHeight="1">
+      <c r="A1058" t="s" s="10">
+        <v>4163</v>
+      </c>
+      <c r="B1058" t="s" s="24">
+        <v>124</v>
+      </c>
+      <c r="C1058" t="s" s="12">
+        <v>4164</v>
+      </c>
+      <c r="D1058" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1058" s="13"/>
+      <c r="F1058" t="s" s="12">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="1059" ht="23.15" customHeight="1">
+      <c r="A1059" t="s" s="10">
+        <v>4166</v>
+      </c>
+      <c r="B1059" t="s" s="11">
+        <v>137</v>
+      </c>
+      <c r="C1059" t="s" s="12">
+        <v>4167</v>
+      </c>
+      <c r="D1059" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1059" s="13"/>
+      <c r="F1059" t="s" s="12">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="1060" ht="23.15" customHeight="1">
+      <c r="A1060" t="s" s="10">
+        <v>4169</v>
+      </c>
+      <c r="B1060" t="s" s="24">
+        <v>137</v>
+      </c>
+      <c r="C1060" t="s" s="12">
+        <v>4170</v>
+      </c>
+      <c r="D1060" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1060" s="13"/>
+      <c r="F1060" t="s" s="12">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="1061" ht="23.15" customHeight="1">
+      <c r="A1061" t="s" s="10">
+        <v>4172</v>
+      </c>
+      <c r="B1061" t="s" s="11">
+        <v>162</v>
+      </c>
+      <c r="C1061" t="s" s="12">
+        <v>4173</v>
+      </c>
+      <c r="D1061" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1061" s="13"/>
+      <c r="F1061" t="s" s="12">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="1062" ht="23.15" customHeight="1">
+      <c r="A1062" t="s" s="10">
+        <v>4175</v>
+      </c>
+      <c r="B1062" t="s" s="24">
+        <v>162</v>
+      </c>
+      <c r="C1062" t="s" s="12">
+        <v>4176</v>
+      </c>
+      <c r="D1062" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1062" s="13"/>
+      <c r="F1062" t="s" s="12">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="1063" ht="23.15" customHeight="1">
+      <c r="A1063" t="s" s="10">
+        <v>4178</v>
+      </c>
+      <c r="B1063" t="s" s="11">
+        <v>86</v>
+      </c>
+      <c r="C1063" t="s" s="12">
+        <v>4179</v>
+      </c>
+      <c r="D1063" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1063" s="13"/>
+      <c r="F1063" t="s" s="12">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="1064" ht="23.15" customHeight="1">
+      <c r="A1064" t="s" s="10">
+        <v>4180</v>
+      </c>
+      <c r="B1064" t="s" s="24">
+        <v>86</v>
+      </c>
+      <c r="C1064" t="s" s="12">
+        <v>4181</v>
+      </c>
+      <c r="D1064" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1064" s="13"/>
+      <c r="F1064" t="s" s="12">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="1065" ht="23.15" customHeight="1">
+      <c r="A1065" t="s" s="10">
+        <v>4183</v>
+      </c>
+      <c r="B1065" t="s" s="11">
+        <v>292</v>
+      </c>
+      <c r="C1065" t="s" s="12">
+        <v>4184</v>
+      </c>
+      <c r="D1065" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1065" s="13"/>
+      <c r="F1065" t="s" s="12">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="1066" ht="23.15" customHeight="1">
+      <c r="A1066" t="s" s="10">
+        <v>4186</v>
+      </c>
+      <c r="B1066" t="s" s="11">
+        <v>4187</v>
+      </c>
+      <c r="C1066" t="s" s="12">
+        <v>4188</v>
+      </c>
+      <c r="D1066" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1066" s="13"/>
+      <c r="F1066" t="s" s="12">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="1067" ht="23.15" customHeight="1">
+      <c r="A1067" t="s" s="10">
+        <v>4190</v>
+      </c>
+      <c r="B1067" t="s" s="24">
+        <v>4187</v>
+      </c>
+      <c r="C1067" t="s" s="12">
+        <v>4191</v>
+      </c>
+      <c r="D1067" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1067" s="13"/>
+      <c r="F1067" t="s" s="12">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="1068" ht="23.15" customHeight="1">
+      <c r="A1068" t="s" s="10">
+        <v>4193</v>
+      </c>
+      <c r="B1068" t="s" s="11">
+        <v>149</v>
+      </c>
+      <c r="C1068" t="s" s="12">
+        <v>4194</v>
+      </c>
+      <c r="D1068" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1068" s="13"/>
+      <c r="F1068" t="s" s="12">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="1069" ht="23.15" customHeight="1">
+      <c r="A1069" t="s" s="10">
+        <v>4195</v>
+      </c>
+      <c r="B1069" t="s" s="24">
+        <v>149</v>
+      </c>
+      <c r="C1069" t="s" s="12">
+        <v>4196</v>
+      </c>
+      <c r="D1069" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1069" s="13"/>
+      <c r="F1069" t="s" s="12">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="1070" ht="23.15" customHeight="1">
+      <c r="A1070" t="s" s="10">
+        <v>4198</v>
+      </c>
+      <c r="B1070" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="C1070" t="s" s="12">
+        <v>4199</v>
+      </c>
+      <c r="D1070" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1070" s="13"/>
+      <c r="F1070" t="s" s="12">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="1071" ht="23.15" customHeight="1">
+      <c r="A1071" t="s" s="10">
+        <v>4201</v>
+      </c>
+      <c r="B1071" t="s" s="11">
+        <v>174</v>
+      </c>
+      <c r="C1071" t="s" s="12">
+        <v>4202</v>
+      </c>
+      <c r="D1071" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1071" s="13"/>
+      <c r="F1071" t="s" s="12">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="1072" ht="23.15" customHeight="1">
+      <c r="A1072" t="s" s="10">
+        <v>4204</v>
+      </c>
+      <c r="B1072" t="s" s="24">
+        <v>174</v>
+      </c>
+      <c r="C1072" t="s" s="12">
+        <v>4205</v>
+      </c>
+      <c r="D1072" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1072" s="13"/>
+      <c r="F1072" t="s" s="12">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="1073" ht="23.15" customHeight="1">
+      <c r="A1073" t="s" s="10">
+        <v>4207</v>
+      </c>
+      <c r="B1073" t="s" s="11">
+        <v>154</v>
+      </c>
+      <c r="C1073" t="s" s="12">
+        <v>4208</v>
+      </c>
+      <c r="D1073" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1073" s="13"/>
+      <c r="F1073" t="s" s="12">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="1074" ht="23.15" customHeight="1">
+      <c r="A1074" t="s" s="10">
+        <v>4210</v>
+      </c>
+      <c r="B1074" t="s" s="24">
+        <v>154</v>
+      </c>
+      <c r="C1074" t="s" s="12">
+        <v>4211</v>
+      </c>
+      <c r="D1074" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1074" s="13"/>
+      <c r="F1074" t="s" s="12">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="1075" ht="23.15" customHeight="1">
+      <c r="A1075" t="s" s="10">
+        <v>4213</v>
+      </c>
+      <c r="B1075" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="C1075" t="s" s="12">
+        <v>4214</v>
+      </c>
+      <c r="D1075" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1075" s="13"/>
+      <c r="F1075" t="s" s="12">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="1076" ht="23.15" customHeight="1">
+      <c r="A1076" t="s" s="10">
+        <v>4215</v>
+      </c>
+      <c r="B1076" t="s" s="24">
+        <v>103</v>
+      </c>
+      <c r="C1076" t="s" s="12">
+        <v>4216</v>
+      </c>
+      <c r="D1076" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1076" s="13"/>
+      <c r="F1076" t="s" s="12">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="1077" ht="23.15" customHeight="1">
+      <c r="A1077" t="s" s="10">
+        <v>4218</v>
+      </c>
+      <c r="B1077" t="s" s="11">
+        <v>129</v>
+      </c>
+      <c r="C1077" t="s" s="12">
+        <v>4219</v>
+      </c>
+      <c r="D1077" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1077" s="13"/>
+      <c r="F1077" t="s" s="12">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="1078" ht="23.15" customHeight="1">
+      <c r="A1078" t="s" s="10">
+        <v>4221</v>
+      </c>
+      <c r="B1078" t="s" s="24">
+        <v>129</v>
+      </c>
+      <c r="C1078" t="s" s="12">
+        <v>4222</v>
+      </c>
+      <c r="D1078" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1078" s="13"/>
+      <c r="F1078" t="s" s="12">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="1079" ht="23.15" customHeight="1">
+      <c r="A1079" t="s" s="10">
+        <v>4224</v>
+      </c>
+      <c r="B1079" t="s" s="11">
+        <v>133</v>
+      </c>
+      <c r="C1079" t="s" s="12">
+        <v>4225</v>
+      </c>
+      <c r="D1079" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1079" s="13"/>
+      <c r="F1079" t="s" s="12">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="1080" ht="23.15" customHeight="1">
+      <c r="A1080" t="s" s="10">
+        <v>4227</v>
+      </c>
+      <c r="B1080" t="s" s="24">
+        <v>133</v>
+      </c>
+      <c r="C1080" t="s" s="12">
+        <v>4228</v>
+      </c>
+      <c r="D1080" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1080" s="13"/>
+      <c r="F1080" t="s" s="12">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="1081" ht="23.15" customHeight="1">
+      <c r="A1081" t="s" s="10">
+        <v>4230</v>
+      </c>
+      <c r="B1081" t="s" s="11">
+        <v>4231</v>
+      </c>
+      <c r="C1081" t="s" s="12">
+        <v>4232</v>
+      </c>
+      <c r="D1081" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1081" s="13"/>
+      <c r="F1081" t="s" s="12">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="1082" ht="23.15" customHeight="1">
+      <c r="A1082" t="s" s="10">
+        <v>4234</v>
+      </c>
+      <c r="B1082" t="s" s="24">
+        <v>4231</v>
+      </c>
+      <c r="C1082" t="s" s="12">
+        <v>4235</v>
+      </c>
+      <c r="D1082" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1082" s="13"/>
+      <c r="F1082" t="s" s="12">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="1083" ht="23.15" customHeight="1">
+      <c r="A1083" t="s" s="10">
+        <v>4237</v>
+      </c>
+      <c r="B1083" t="s" s="11">
+        <v>4238</v>
+      </c>
+      <c r="C1083" t="s" s="12">
+        <v>4239</v>
+      </c>
+      <c r="D1083" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1083" s="13"/>
+      <c r="F1083" t="s" s="12">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="1084" ht="23.15" customHeight="1">
+      <c r="A1084" t="s" s="10">
+        <v>4241</v>
+      </c>
+      <c r="B1084" t="s" s="11">
+        <v>4242</v>
+      </c>
+      <c r="C1084" t="s" s="12">
+        <v>4243</v>
+      </c>
+      <c r="D1084" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1084" s="13"/>
+      <c r="F1084" t="s" s="12">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="1085" ht="23.15" customHeight="1">
+      <c r="A1085" t="s" s="10">
+        <v>4245</v>
+      </c>
+      <c r="B1085" t="s" s="24">
+        <v>4242</v>
+      </c>
+      <c r="C1085" t="s" s="12">
+        <v>4246</v>
+      </c>
+      <c r="D1085" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1085" s="13"/>
+      <c r="F1085" t="s" s="12">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="1086" ht="23.15" customHeight="1">
+      <c r="A1086" t="s" s="10">
+        <v>4248</v>
+      </c>
+      <c r="B1086" t="s" s="11">
+        <v>4249</v>
+      </c>
+      <c r="C1086" t="s" s="12">
+        <v>4250</v>
+      </c>
+      <c r="D1086" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1086" s="13"/>
+      <c r="F1086" t="s" s="12">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="1087" ht="23.15" customHeight="1">
+      <c r="A1087" t="s" s="10">
+        <v>4252</v>
+      </c>
+      <c r="B1087" t="s" s="24">
+        <v>4249</v>
+      </c>
+      <c r="C1087" t="s" s="12">
+        <v>4253</v>
+      </c>
+      <c r="D1087" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1087" s="13"/>
+      <c r="F1087" t="s" s="12">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="1088" ht="23.15" customHeight="1">
+      <c r="A1088" t="s" s="10">
+        <v>4255</v>
+      </c>
+      <c r="B1088" t="s" s="11">
+        <v>91</v>
+      </c>
+      <c r="C1088" t="s" s="12">
+        <v>4256</v>
+      </c>
+      <c r="D1088" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1088" s="13"/>
+      <c r="F1088" t="s" s="12">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="1089" ht="23.15" customHeight="1">
+      <c r="A1089" t="s" s="10">
+        <v>4258</v>
+      </c>
+      <c r="B1089" t="s" s="24">
+        <v>91</v>
+      </c>
+      <c r="C1089" t="s" s="12">
+        <v>4259</v>
+      </c>
+      <c r="D1089" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1089" s="13"/>
+      <c r="F1089" t="s" s="12">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="1090" ht="23.15" customHeight="1">
+      <c r="A1090" t="s" s="10">
+        <v>4261</v>
+      </c>
+      <c r="B1090" t="s" s="11">
+        <v>95</v>
+      </c>
+      <c r="C1090" t="s" s="12">
+        <v>4262</v>
+      </c>
+      <c r="D1090" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1090" s="13"/>
+      <c r="F1090" t="s" s="12">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="1091" ht="23.15" customHeight="1">
+      <c r="A1091" t="s" s="10">
+        <v>4264</v>
+      </c>
+      <c r="B1091" t="s" s="24">
+        <v>95</v>
+      </c>
+      <c r="C1091" t="s" s="12">
+        <v>4265</v>
+      </c>
+      <c r="D1091" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1091" s="13"/>
+      <c r="F1091" t="s" s="12">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="1092" ht="23.15" customHeight="1">
+      <c r="A1092" t="s" s="10">
+        <v>4267</v>
+      </c>
+      <c r="B1092" t="s" s="11">
+        <v>1939</v>
+      </c>
+      <c r="C1092" t="s" s="12">
+        <v>4268</v>
+      </c>
+      <c r="D1092" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1092" s="13"/>
+      <c r="F1092" t="s" s="12">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="1093" ht="23.15" customHeight="1">
+      <c r="A1093" t="s" s="10">
+        <v>4269</v>
+      </c>
+      <c r="B1093" t="s" s="24">
+        <v>1939</v>
+      </c>
+      <c r="C1093" t="s" s="12">
+        <v>4270</v>
+      </c>
+      <c r="D1093" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1093" s="13"/>
+      <c r="F1093" t="s" s="12">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="1094" ht="23.15" customHeight="1">
+      <c r="A1094" t="s" s="10">
+        <v>4272</v>
+      </c>
+      <c r="B1094" t="s" s="11">
+        <v>108</v>
+      </c>
+      <c r="C1094" t="s" s="12">
+        <v>4273</v>
+      </c>
+      <c r="D1094" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1094" s="13"/>
+      <c r="F1094" t="s" s="12">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="1095" ht="23.15" customHeight="1">
+      <c r="A1095" t="s" s="10">
+        <v>4275</v>
+      </c>
+      <c r="B1095" t="s" s="24">
+        <v>108</v>
+      </c>
+      <c r="C1095" t="s" s="12">
+        <v>4276</v>
+      </c>
+      <c r="D1095" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1095" s="13"/>
+      <c r="F1095" t="s" s="12">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="1096" ht="23.15" customHeight="1">
+      <c r="A1096" t="s" s="10">
+        <v>4278</v>
+      </c>
+      <c r="B1096" t="s" s="11">
+        <v>112</v>
+      </c>
+      <c r="C1096" t="s" s="12">
+        <v>4279</v>
+      </c>
+      <c r="D1096" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1096" s="13"/>
+      <c r="F1096" t="s" s="12">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="1097" ht="23.15" customHeight="1">
+      <c r="A1097" t="s" s="10">
+        <v>4281</v>
+      </c>
+      <c r="B1097" t="s" s="24">
+        <v>112</v>
+      </c>
+      <c r="C1097" t="s" s="12">
+        <v>4282</v>
+      </c>
+      <c r="D1097" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1097" s="13"/>
+      <c r="F1097" t="s" s="12">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="1098" ht="23.15" customHeight="1">
+      <c r="A1098" t="s" s="10">
+        <v>4284</v>
+      </c>
+      <c r="B1098" t="s" s="11">
+        <v>116</v>
+      </c>
+      <c r="C1098" t="s" s="12">
+        <v>4285</v>
+      </c>
+      <c r="D1098" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1098" s="13"/>
+      <c r="F1098" t="s" s="12">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="1099" ht="23.15" customHeight="1">
+      <c r="A1099" t="s" s="10">
+        <v>4287</v>
+      </c>
+      <c r="B1099" t="s" s="24">
+        <v>116</v>
+      </c>
+      <c r="C1099" t="s" s="12">
+        <v>4288</v>
+      </c>
+      <c r="D1099" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1099" s="13"/>
+      <c r="F1099" t="s" s="12">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="1100" ht="23.15" customHeight="1">
+      <c r="A1100" t="s" s="10">
+        <v>4290</v>
+      </c>
+      <c r="B1100" t="s" s="11">
+        <v>4291</v>
+      </c>
+      <c r="C1100" t="s" s="12">
+        <v>4292</v>
+      </c>
+      <c r="D1100" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1100" s="13"/>
+      <c r="F1100" t="s" s="12">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="1101" ht="23.15" customHeight="1">
+      <c r="A1101" t="s" s="10">
+        <v>4294</v>
+      </c>
+      <c r="B1101" t="s" s="24">
+        <v>4291</v>
+      </c>
+      <c r="C1101" t="s" s="12">
+        <v>4295</v>
+      </c>
+      <c r="D1101" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1101" s="13"/>
+      <c r="F1101" t="s" s="12">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="1102" ht="23.15" customHeight="1">
+      <c r="A1102" t="s" s="10">
+        <v>4297</v>
+      </c>
+      <c r="B1102" t="s" s="11">
+        <v>4298</v>
+      </c>
+      <c r="C1102" t="s" s="12">
+        <v>4299</v>
+      </c>
+      <c r="D1102" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1102" s="13"/>
+      <c r="F1102" t="s" s="12">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="1103" ht="23.15" customHeight="1">
+      <c r="A1103" t="s" s="10">
+        <v>4301</v>
+      </c>
+      <c r="B1103" t="s" s="11">
+        <v>3975</v>
+      </c>
+      <c r="C1103" t="s" s="12">
+        <v>4302</v>
+      </c>
+      <c r="D1103" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1103" s="13"/>
+      <c r="F1103" t="s" s="12">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="1104" ht="23.15" customHeight="1">
+      <c r="A1104" t="s" s="10">
+        <v>4304</v>
+      </c>
+      <c r="B1104" t="s" s="11">
+        <v>166</v>
+      </c>
+      <c r="C1104" t="s" s="12">
+        <v>4305</v>
+      </c>
+      <c r="D1104" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1104" s="13"/>
+      <c r="F1104" t="s" s="12">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="1105" ht="23.15" customHeight="1">
+      <c r="A1105" t="s" s="10">
+        <v>4307</v>
+      </c>
+      <c r="B1105" t="s" s="24">
+        <v>166</v>
+      </c>
+      <c r="C1105" t="s" s="12">
+        <v>4308</v>
+      </c>
+      <c r="D1105" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1105" s="13"/>
+      <c r="F1105" t="s" s="12">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="1106" ht="23.15" customHeight="1">
+      <c r="A1106" t="s" s="10">
+        <v>4310</v>
+      </c>
+      <c r="B1106" t="s" s="11">
+        <v>170</v>
+      </c>
+      <c r="C1106" t="s" s="12">
+        <v>4311</v>
+      </c>
+      <c r="D1106" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1106" s="13"/>
+      <c r="F1106" t="s" s="12">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="1107" ht="23.15" customHeight="1">
+      <c r="A1107" t="s" s="10">
+        <v>4313</v>
+      </c>
+      <c r="B1107" t="s" s="24">
+        <v>170</v>
+      </c>
+      <c r="C1107" t="s" s="12">
+        <v>4314</v>
+      </c>
+      <c r="D1107" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1107" s="13"/>
+      <c r="F1107" t="s" s="12">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="1108" ht="23.15" customHeight="1">
+      <c r="A1108" t="s" s="10">
+        <v>4316</v>
+      </c>
+      <c r="B1108" t="s" s="11">
+        <v>3937</v>
+      </c>
+      <c r="C1108" t="s" s="12">
+        <v>4317</v>
+      </c>
+      <c r="D1108" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1108" s="13"/>
+      <c r="F1108" t="s" s="12">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1109" ht="23.15" customHeight="1">
+      <c r="A1109" t="s" s="10">
+        <v>4318</v>
+      </c>
+      <c r="B1109" t="s" s="24">
+        <v>3937</v>
+      </c>
+      <c r="C1109" t="s" s="12">
+        <v>4319</v>
+      </c>
+      <c r="D1109" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1109" s="13"/>
+      <c r="F1109" t="s" s="12">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="1110" ht="23.15" customHeight="1">
+      <c r="A1110" t="s" s="10">
+        <v>4321</v>
+      </c>
+      <c r="B1110" t="s" s="11">
+        <v>158</v>
+      </c>
+      <c r="C1110" t="s" s="12">
+        <v>4322</v>
+      </c>
+      <c r="D1110" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1110" s="13"/>
+      <c r="F1110" t="s" s="12">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="1111" ht="23.15" customHeight="1">
+      <c r="A1111" t="s" s="10">
+        <v>4324</v>
+      </c>
+      <c r="B1111" t="s" s="24">
+        <v>158</v>
+      </c>
+      <c r="C1111" t="s" s="12">
+        <v>4325</v>
+      </c>
+      <c r="D1111" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1111" s="13"/>
+      <c r="F1111" t="s" s="12">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="1112" ht="23.15" customHeight="1">
+      <c r="A1112" t="s" s="10">
+        <v>4327</v>
+      </c>
+      <c r="B1112" t="s" s="11">
+        <v>120</v>
+      </c>
+      <c r="C1112" t="s" s="12">
+        <v>4328</v>
+      </c>
+      <c r="D1112" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1112" s="13"/>
+      <c r="F1112" t="s" s="12">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="1113" ht="23.15" customHeight="1">
+      <c r="A1113" t="s" s="10">
+        <v>4330</v>
+      </c>
+      <c r="B1113" t="s" s="24">
+        <v>120</v>
+      </c>
+      <c r="C1113" t="s" s="12">
+        <v>4331</v>
+      </c>
+      <c r="D1113" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1113" s="13"/>
+      <c r="F1113" t="s" s="12">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="1114" ht="23.15" customHeight="1">
+      <c r="A1114" t="s" s="10">
+        <v>4333</v>
+      </c>
+      <c r="B1114" t="s" s="11">
+        <v>4334</v>
+      </c>
+      <c r="C1114" t="s" s="12">
+        <v>4335</v>
+      </c>
+      <c r="D1114" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1114" s="13"/>
+      <c r="F1114" t="s" s="12">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="1115" ht="23.15" customHeight="1">
+      <c r="A1115" t="s" s="10">
+        <v>4337</v>
+      </c>
+      <c r="B1115" t="s" s="11">
+        <v>4062</v>
+      </c>
+      <c r="C1115" t="s" s="12">
+        <v>4338</v>
+      </c>
+      <c r="D1115" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1115" s="13"/>
+      <c r="F1115" t="s" s="12">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="1116" ht="23.15" customHeight="1">
+      <c r="A1116" t="s" s="10">
+        <v>4340</v>
+      </c>
+      <c r="B1116" t="s" s="11">
+        <v>4341</v>
+      </c>
+      <c r="C1116" t="s" s="12">
+        <v>4342</v>
+      </c>
+      <c r="D1116" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1116" s="13"/>
+      <c r="F1116" t="s" s="12">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="1117" ht="23.15" customHeight="1">
+      <c r="A1117" t="s" s="10">
+        <v>4344</v>
+      </c>
+      <c r="B1117" t="s" s="11">
+        <v>4345</v>
+      </c>
+      <c r="C1117" t="s" s="12">
+        <v>4346</v>
+      </c>
+      <c r="D1117" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1117" s="13"/>
+      <c r="F1117" t="s" s="12">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="1118" ht="23.15" customHeight="1">
+      <c r="A1118" t="s" s="10">
+        <v>4348</v>
+      </c>
+      <c r="B1118" t="s" s="11">
+        <v>4349</v>
+      </c>
+      <c r="C1118" t="s" s="12">
+        <v>4350</v>
+      </c>
+      <c r="D1118" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1118" s="13"/>
+      <c r="F1118" t="s" s="12">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="1119" ht="23.15" customHeight="1">
+      <c r="A1119" t="s" s="10">
+        <v>4352</v>
+      </c>
+      <c r="B1119" t="s" s="11">
+        <v>4353</v>
+      </c>
+      <c r="C1119" t="s" s="12">
+        <v>4354</v>
+      </c>
+      <c r="D1119" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1119" s="13"/>
+      <c r="F1119" t="s" s="12">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="1120" ht="23.15" customHeight="1">
+      <c r="A1120" t="s" s="10">
+        <v>4356</v>
+      </c>
+      <c r="B1120" t="s" s="11">
+        <v>4357</v>
+      </c>
+      <c r="C1120" t="s" s="12">
+        <v>4358</v>
+      </c>
+      <c r="D1120" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1120" s="13"/>
+      <c r="F1120" t="s" s="12">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1121" ht="23.15" customHeight="1">
+      <c r="A1121" t="s" s="10">
+        <v>4360</v>
+      </c>
+      <c r="B1121" t="s" s="11">
+        <v>238</v>
+      </c>
+      <c r="C1121" t="s" s="12">
+        <v>4361</v>
+      </c>
+      <c r="D1121" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1121" s="13"/>
+      <c r="F1121" t="s" s="12">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="1122" ht="23.15" customHeight="1">
+      <c r="A1122" t="s" s="10">
+        <v>4363</v>
+      </c>
+      <c r="B1122" t="s" s="11">
+        <v>260</v>
+      </c>
+      <c r="C1122" t="s" s="12">
+        <v>4364</v>
+      </c>
+      <c r="D1122" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1122" s="13"/>
+      <c r="F1122" t="s" s="12">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="1123" ht="23.15" customHeight="1">
+      <c r="A1123" t="s" s="10">
+        <v>4365</v>
+      </c>
+      <c r="B1123" t="s" s="11">
+        <v>228</v>
+      </c>
+      <c r="C1123" t="s" s="12">
+        <v>4366</v>
+      </c>
+      <c r="D1123" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1123" s="13"/>
+      <c r="F1123" t="s" s="12">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="1124" ht="23.15" customHeight="1">
+      <c r="A1124" t="s" s="10">
+        <v>4368</v>
+      </c>
+      <c r="B1124" t="s" s="11">
+        <v>4369</v>
+      </c>
+      <c r="C1124" t="s" s="12">
+        <v>4370</v>
+      </c>
+      <c r="D1124" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1124" s="13"/>
+      <c r="F1124" t="s" s="12">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="1125" ht="23.15" customHeight="1">
+      <c r="A1125" t="s" s="10">
+        <v>4372</v>
+      </c>
+      <c r="B1125" t="s" s="11">
+        <v>4373</v>
+      </c>
+      <c r="C1125" t="s" s="12">
+        <v>4374</v>
+      </c>
+      <c r="D1125" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1125" s="13"/>
+      <c r="F1125" t="s" s="12">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="1126" ht="23.15" customHeight="1">
+      <c r="A1126" t="s" s="10">
+        <v>4376</v>
+      </c>
+      <c r="B1126" t="s" s="24">
+        <v>4373</v>
+      </c>
+      <c r="C1126" t="s" s="12">
+        <v>4377</v>
+      </c>
+      <c r="D1126" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1126" s="13"/>
+      <c r="F1126" t="s" s="12">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="1127" ht="23.15" customHeight="1">
+      <c r="A1127" t="s" s="10">
+        <v>4379</v>
+      </c>
+      <c r="B1127" t="s" s="11">
+        <v>4345</v>
+      </c>
+      <c r="C1127" t="s" s="12">
+        <v>4380</v>
+      </c>
+      <c r="D1127" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1127" s="13"/>
+      <c r="F1127" t="s" s="12">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="1128" ht="23.15" customHeight="1">
+      <c r="A1128" t="s" s="10">
+        <v>4381</v>
+      </c>
+      <c r="B1128" t="s" s="11">
+        <v>4382</v>
+      </c>
+      <c r="C1128" t="s" s="12">
+        <v>4383</v>
+      </c>
+      <c r="D1128" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1128" s="13"/>
+      <c r="F1128" t="s" s="12">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="1129" ht="23.15" customHeight="1">
+      <c r="A1129" t="s" s="10">
+        <v>4385</v>
+      </c>
+      <c r="B1129" t="s" s="24">
+        <v>4382</v>
+      </c>
+      <c r="C1129" t="s" s="12">
+        <v>4386</v>
+      </c>
+      <c r="D1129" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1129" s="13"/>
+      <c r="F1129" t="s" s="12">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="1130" ht="36.15" customHeight="1">
+      <c r="A1130" t="s" s="10">
+        <v>4388</v>
+      </c>
+      <c r="B1130" t="s" s="11">
+        <v>4389</v>
+      </c>
+      <c r="C1130" t="s" s="12">
+        <v>4390</v>
+      </c>
+      <c r="D1130" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1130" s="13"/>
+      <c r="F1130" t="s" s="12">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="1131" ht="36.15" customHeight="1">
+      <c r="A1131" t="s" s="10">
+        <v>4392</v>
+      </c>
+      <c r="B1131" t="s" s="11">
+        <v>4393</v>
+      </c>
+      <c r="C1131" t="s" s="12">
+        <v>4394</v>
+      </c>
+      <c r="D1131" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1131" s="13"/>
+      <c r="F1131" t="s" s="12">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="1132" ht="36.15" customHeight="1">
+      <c r="A1132" t="s" s="10">
+        <v>4396</v>
+      </c>
+      <c r="B1132" t="s" s="11">
+        <v>4397</v>
+      </c>
+      <c r="C1132" t="s" s="12">
+        <v>4398</v>
+      </c>
+      <c r="D1132" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1132" s="13"/>
+      <c r="F1132" t="s" s="12">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="1133" ht="36.15" customHeight="1">
+      <c r="A1133" t="s" s="10">
+        <v>4400</v>
+      </c>
+      <c r="B1133" t="s" s="11">
+        <v>4401</v>
+      </c>
+      <c r="C1133" t="s" s="12">
+        <v>4402</v>
+      </c>
+      <c r="D1133" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1133" s="13"/>
+      <c r="F1133" t="s" s="12">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="1134" ht="36.15" customHeight="1">
+      <c r="A1134" t="s" s="10">
+        <v>4404</v>
+      </c>
+      <c r="B1134" t="s" s="11">
+        <v>4405</v>
+      </c>
+      <c r="C1134" t="s" s="12">
+        <v>4406</v>
+      </c>
+      <c r="D1134" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1134" s="13"/>
+      <c r="F1134" t="s" s="12">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="1135" ht="36.15" customHeight="1">
+      <c r="A1135" t="s" s="10">
+        <v>4408</v>
+      </c>
+      <c r="B1135" t="s" s="11">
+        <v>4409</v>
+      </c>
+      <c r="C1135" t="s" s="12">
+        <v>4410</v>
+      </c>
+      <c r="D1135" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1135" s="13"/>
+      <c r="F1135" t="s" s="12">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="1136" ht="36.15" customHeight="1">
+      <c r="A1136" t="s" s="10">
+        <v>4412</v>
+      </c>
+      <c r="B1136" t="s" s="11">
+        <v>4413</v>
+      </c>
+      <c r="C1136" t="s" s="12">
+        <v>4414</v>
+      </c>
+      <c r="D1136" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1136" s="13"/>
+      <c r="F1136" t="s" s="12">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="1137" ht="36.15" customHeight="1">
+      <c r="A1137" t="s" s="10">
+        <v>4416</v>
+      </c>
+      <c r="B1137" t="s" s="11">
+        <v>4417</v>
+      </c>
+      <c r="C1137" t="s" s="12">
+        <v>4418</v>
+      </c>
+      <c r="D1137" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1137" s="13"/>
+      <c r="F1137" t="s" s="12">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="1138" ht="36.15" customHeight="1">
+      <c r="A1138" t="s" s="10">
+        <v>4420</v>
+      </c>
+      <c r="B1138" t="s" s="11">
+        <v>4421</v>
+      </c>
+      <c r="C1138" t="s" s="12">
+        <v>4422</v>
+      </c>
+      <c r="D1138" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1138" s="13"/>
+      <c r="F1138" t="s" s="12">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="1139" ht="36.15" customHeight="1">
+      <c r="A1139" t="s" s="10">
+        <v>4424</v>
+      </c>
+      <c r="B1139" t="s" s="11">
+        <v>4425</v>
+      </c>
+      <c r="C1139" t="s" s="12">
+        <v>4426</v>
+      </c>
+      <c r="D1139" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1139" s="13"/>
+      <c r="F1139" t="s" s="12">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="1140" ht="36.15" customHeight="1">
+      <c r="A1140" t="s" s="10">
+        <v>4428</v>
+      </c>
+      <c r="B1140" t="s" s="11">
+        <v>4429</v>
+      </c>
+      <c r="C1140" t="s" s="12">
+        <v>4430</v>
+      </c>
+      <c r="D1140" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1140" s="13"/>
+      <c r="F1140" t="s" s="12">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="1141" ht="36.15" customHeight="1">
+      <c r="A1141" t="s" s="10">
+        <v>4432</v>
+      </c>
+      <c r="B1141" t="s" s="11">
+        <v>4433</v>
+      </c>
+      <c r="C1141" t="s" s="12">
+        <v>4434</v>
+      </c>
+      <c r="D1141" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1141" s="13"/>
+      <c r="F1141" t="s" s="12">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="1142" ht="36.15" customHeight="1">
+      <c r="A1142" t="s" s="10">
+        <v>4436</v>
+      </c>
+      <c r="B1142" t="s" s="11">
+        <v>4437</v>
+      </c>
+      <c r="C1142" t="s" s="12">
+        <v>4438</v>
+      </c>
+      <c r="D1142" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1142" s="13"/>
+      <c r="F1142" t="s" s="12">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="1143" ht="36.15" customHeight="1">
+      <c r="A1143" t="s" s="10">
+        <v>4440</v>
+      </c>
+      <c r="B1143" t="s" s="11">
+        <v>4441</v>
+      </c>
+      <c r="C1143" t="s" s="12">
+        <v>4442</v>
+      </c>
+      <c r="D1143" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1143" s="13"/>
+      <c r="F1143" t="s" s="12">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="1144" ht="36.15" customHeight="1">
+      <c r="A1144" t="s" s="10">
+        <v>4444</v>
+      </c>
+      <c r="B1144" t="s" s="11">
+        <v>4445</v>
+      </c>
+      <c r="C1144" t="s" s="12">
+        <v>4446</v>
+      </c>
+      <c r="D1144" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1144" s="13"/>
+      <c r="F1144" t="s" s="12">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="1145" ht="36.15" customHeight="1">
+      <c r="A1145" t="s" s="10">
+        <v>4448</v>
+      </c>
+      <c r="B1145" t="s" s="11">
+        <v>4449</v>
+      </c>
+      <c r="C1145" t="s" s="12">
+        <v>4450</v>
+      </c>
+      <c r="D1145" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1145" s="13"/>
+      <c r="F1145" t="s" s="12">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="1146" ht="36.15" customHeight="1">
+      <c r="A1146" t="s" s="10">
+        <v>4452</v>
+      </c>
+      <c r="B1146" t="s" s="11">
+        <v>4453</v>
+      </c>
+      <c r="C1146" t="s" s="12">
+        <v>4454</v>
+      </c>
+      <c r="D1146" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1146" s="13"/>
+      <c r="F1146" t="s" s="12">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="1147" ht="36.15" customHeight="1">
+      <c r="A1147" t="s" s="10">
+        <v>4456</v>
+      </c>
+      <c r="B1147" t="s" s="11">
+        <v>4457</v>
+      </c>
+      <c r="C1147" t="s" s="12">
+        <v>4458</v>
+      </c>
+      <c r="D1147" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1147" s="13"/>
+      <c r="F1147" t="s" s="12">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="1148" ht="36.15" customHeight="1">
+      <c r="A1148" t="s" s="10">
+        <v>4460</v>
+      </c>
+      <c r="B1148" t="s" s="11">
+        <v>4461</v>
+      </c>
+      <c r="C1148" t="s" s="12">
+        <v>4462</v>
+      </c>
+      <c r="D1148" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1148" s="13"/>
+      <c r="F1148" t="s" s="12">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="1149" ht="36.15" customHeight="1">
+      <c r="A1149" t="s" s="10">
+        <v>4464</v>
+      </c>
+      <c r="B1149" t="s" s="11">
+        <v>4465</v>
+      </c>
+      <c r="C1149" t="s" s="12">
+        <v>4466</v>
+      </c>
+      <c r="D1149" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1149" s="13"/>
+      <c r="F1149" t="s" s="12">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="1150" ht="36.15" customHeight="1">
+      <c r="A1150" t="s" s="10">
+        <v>4468</v>
+      </c>
+      <c r="B1150" t="s" s="11">
+        <v>4469</v>
+      </c>
+      <c r="C1150" t="s" s="12">
+        <v>4470</v>
+      </c>
+      <c r="D1150" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1150" s="13"/>
+      <c r="F1150" t="s" s="12">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="1151" ht="36.15" customHeight="1">
+      <c r="A1151" t="s" s="10">
+        <v>4472</v>
+      </c>
+      <c r="B1151" t="s" s="11">
+        <v>4473</v>
+      </c>
+      <c r="C1151" t="s" s="12">
+        <v>4474</v>
+      </c>
+      <c r="D1151" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1151" s="13"/>
+      <c r="F1151" t="s" s="12">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="1152" ht="36.15" customHeight="1">
+      <c r="A1152" t="s" s="10">
+        <v>4476</v>
+      </c>
+      <c r="B1152" t="s" s="11">
+        <v>4477</v>
+      </c>
+      <c r="C1152" t="s" s="12">
+        <v>4478</v>
+      </c>
+      <c r="D1152" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1152" s="13"/>
+      <c r="F1152" t="s" s="12">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="1153" ht="36.15" customHeight="1">
+      <c r="A1153" t="s" s="10">
+        <v>4480</v>
+      </c>
+      <c r="B1153" t="s" s="11">
+        <v>4481</v>
+      </c>
+      <c r="C1153" t="s" s="12">
+        <v>4482</v>
+      </c>
+      <c r="D1153" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1153" s="13"/>
+      <c r="F1153" t="s" s="12">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="1154" ht="36.15" customHeight="1">
+      <c r="A1154" t="s" s="10">
+        <v>4484</v>
+      </c>
+      <c r="B1154" t="s" s="11">
+        <v>4485</v>
+      </c>
+      <c r="C1154" t="s" s="12">
+        <v>4486</v>
+      </c>
+      <c r="D1154" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1154" s="13"/>
+      <c r="F1154" t="s" s="12">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="1155" ht="36.15" customHeight="1">
+      <c r="A1155" t="s" s="10">
+        <v>4488</v>
+      </c>
+      <c r="B1155" t="s" s="11">
+        <v>4489</v>
+      </c>
+      <c r="C1155" t="s" s="12">
+        <v>4490</v>
+      </c>
+      <c r="D1155" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1155" s="13"/>
+      <c r="F1155" t="s" s="12">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="1156" ht="36.15" customHeight="1">
+      <c r="A1156" t="s" s="10">
+        <v>4492</v>
+      </c>
+      <c r="B1156" t="s" s="11">
+        <v>4493</v>
+      </c>
+      <c r="C1156" t="s" s="12">
+        <v>4494</v>
+      </c>
+      <c r="D1156" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1156" s="13"/>
+      <c r="F1156" t="s" s="12">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="1157" ht="36.15" customHeight="1">
+      <c r="A1157" t="s" s="10">
+        <v>4496</v>
+      </c>
+      <c r="B1157" t="s" s="11">
+        <v>4497</v>
+      </c>
+      <c r="C1157" t="s" s="12">
+        <v>4498</v>
+      </c>
+      <c r="D1157" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1157" s="13"/>
+      <c r="F1157" t="s" s="12">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="1158" ht="36.15" customHeight="1">
+      <c r="A1158" t="s" s="10">
+        <v>4500</v>
+      </c>
+      <c r="B1158" t="s" s="11">
+        <v>4501</v>
+      </c>
+      <c r="C1158" t="s" s="12">
+        <v>4502</v>
+      </c>
+      <c r="D1158" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1158" s="13"/>
+      <c r="F1158" t="s" s="12">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="1159" ht="36.15" customHeight="1">
+      <c r="A1159" t="s" s="10">
+        <v>4504</v>
+      </c>
+      <c r="B1159" t="s" s="11">
+        <v>4505</v>
+      </c>
+      <c r="C1159" t="s" s="12">
+        <v>4506</v>
+      </c>
+      <c r="D1159" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1159" s="13"/>
+      <c r="F1159" t="s" s="12">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="1160" ht="23.15" customHeight="1">
+      <c r="A1160" t="s" s="10">
+        <v>4508</v>
+      </c>
+      <c r="B1160" t="s" s="24">
+        <v>4127</v>
+      </c>
+      <c r="C1160" t="s" s="12">
+        <v>4509</v>
+      </c>
+      <c r="D1160" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1160" s="13"/>
+      <c r="F1160" t="s" s="12">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="1161" ht="23.15" customHeight="1">
+      <c r="A1161" t="s" s="10">
+        <v>4510</v>
+      </c>
+      <c r="B1161" t="s" s="11">
+        <v>4382</v>
+      </c>
+      <c r="C1161" t="s" s="12">
+        <v>4511</v>
+      </c>
+      <c r="D1161" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1161" s="13"/>
+      <c r="F1161" t="s" s="12">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="1162" ht="23.15" customHeight="1">
+      <c r="A1162" t="s" s="10">
+        <v>4512</v>
+      </c>
+      <c r="B1162" t="s" s="24">
+        <v>4382</v>
+      </c>
+      <c r="C1162" t="s" s="12">
+        <v>4513</v>
+      </c>
+      <c r="D1162" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1162" s="13"/>
+      <c r="F1162" t="s" s="12">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="1163" ht="36.15" customHeight="1">
+      <c r="A1163" t="s" s="10">
+        <v>4514</v>
+      </c>
+      <c r="B1163" t="s" s="11">
+        <v>4515</v>
+      </c>
+      <c r="C1163" t="s" s="12">
+        <v>4516</v>
+      </c>
+      <c r="D1163" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1163" s="13"/>
+      <c r="F1163" t="s" s="12">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="1164" ht="36.15" customHeight="1">
+      <c r="A1164" t="s" s="10">
+        <v>4518</v>
+      </c>
+      <c r="B1164" t="s" s="11">
+        <v>4519</v>
+      </c>
+      <c r="C1164" t="s" s="12">
+        <v>4520</v>
+      </c>
+      <c r="D1164" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1164" s="13"/>
+      <c r="F1164" t="s" s="12">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="1165" ht="36.15" customHeight="1">
+      <c r="A1165" t="s" s="10">
+        <v>4522</v>
+      </c>
+      <c r="B1165" t="s" s="11">
+        <v>4523</v>
+      </c>
+      <c r="C1165" t="s" s="12">
+        <v>4524</v>
+      </c>
+      <c r="D1165" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1165" s="13"/>
+      <c r="F1165" t="s" s="12">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="1166" ht="36.15" customHeight="1">
+      <c r="A1166" t="s" s="10">
+        <v>4526</v>
+      </c>
+      <c r="B1166" t="s" s="11">
+        <v>4527</v>
+      </c>
+      <c r="C1166" t="s" s="12">
+        <v>4528</v>
+      </c>
+      <c r="D1166" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1166" s="13"/>
+      <c r="F1166" t="s" s="12">
+        <v>4529</v>
+      </c>
+    </row>
+    <row r="1167" ht="36.15" customHeight="1">
+      <c r="A1167" t="s" s="10">
+        <v>4530</v>
+      </c>
+      <c r="B1167" t="s" s="11">
+        <v>4531</v>
+      </c>
+      <c r="C1167" t="s" s="12">
+        <v>4532</v>
+      </c>
+      <c r="D1167" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1167" s="13"/>
+      <c r="F1167" t="s" s="12">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="1168" ht="36.15" customHeight="1">
+      <c r="A1168" t="s" s="10">
+        <v>4534</v>
+      </c>
+      <c r="B1168" t="s" s="11">
+        <v>4535</v>
+      </c>
+      <c r="C1168" t="s" s="12">
+        <v>4536</v>
+      </c>
+      <c r="D1168" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1168" s="13"/>
+      <c r="F1168" t="s" s="12">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="1169" ht="23.15" customHeight="1">
+      <c r="A1169" t="s" s="10">
+        <v>4538</v>
+      </c>
+      <c r="B1169" t="s" s="11">
+        <v>3998</v>
+      </c>
+      <c r="C1169" t="s" s="12">
+        <v>4539</v>
+      </c>
+      <c r="D1169" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1169" s="13"/>
+      <c r="F1169" t="s" s="12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="1170" ht="36.15" customHeight="1">
+      <c r="A1170" t="s" s="10">
+        <v>4540</v>
+      </c>
+      <c r="B1170" t="s" s="11">
+        <v>4541</v>
+      </c>
+      <c r="C1170" t="s" s="12">
+        <v>4542</v>
+      </c>
+      <c r="D1170" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1170" s="13"/>
+      <c r="F1170" t="s" s="12">
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="1171" ht="36.15" customHeight="1">
+      <c r="A1171" t="s" s="10">
+        <v>4544</v>
+      </c>
+      <c r="B1171" t="s" s="11">
+        <v>4545</v>
+      </c>
+      <c r="C1171" t="s" s="12">
+        <v>4546</v>
+      </c>
+      <c r="D1171" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1171" s="13"/>
+      <c r="F1171" t="s" s="12">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="1172" ht="23.15" customHeight="1">
+      <c r="A1172" t="s" s="10">
+        <v>4548</v>
+      </c>
+      <c r="B1172" t="s" s="24">
+        <v>4127</v>
+      </c>
+      <c r="C1172" t="s" s="12">
+        <v>4549</v>
+      </c>
+      <c r="D1172" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1172" s="13"/>
+      <c r="F1172" t="s" s="12">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="1173" ht="23.15" customHeight="1">
+      <c r="A1173" t="s" s="10">
+        <v>4550</v>
+      </c>
+      <c r="B1173" t="s" s="11">
+        <v>4382</v>
+      </c>
+      <c r="C1173" t="s" s="12">
+        <v>4551</v>
+      </c>
+      <c r="D1173" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1173" s="13"/>
+      <c r="F1173" t="s" s="12">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="1174" ht="23.15" customHeight="1">
+      <c r="A1174" t="s" s="10">
+        <v>4552</v>
+      </c>
+      <c r="B1174" t="s" s="24">
+        <v>4382</v>
+      </c>
+      <c r="C1174" t="s" s="12">
+        <v>4553</v>
+      </c>
+      <c r="D1174" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1174" s="13"/>
+      <c r="F1174" t="s" s="12">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="1175" ht="36.15" customHeight="1">
+      <c r="A1175" t="s" s="10">
+        <v>4554</v>
+      </c>
+      <c r="B1175" t="s" s="11">
+        <v>4555</v>
+      </c>
+      <c r="C1175" t="s" s="12">
+        <v>4556</v>
+      </c>
+      <c r="D1175" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1175" s="13"/>
+      <c r="F1175" t="s" s="12">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="1176" ht="23.15" customHeight="1">
+      <c r="A1176" t="s" s="10">
+        <v>4558</v>
+      </c>
+      <c r="B1176" t="s" s="11">
+        <v>4382</v>
+      </c>
+      <c r="C1176" t="s" s="12">
+        <v>4559</v>
+      </c>
+      <c r="D1176" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1176" s="13"/>
+      <c r="F1176" t="s" s="12">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="1177" ht="36.15" customHeight="1">
+      <c r="A1177" t="s" s="10">
+        <v>4560</v>
+      </c>
+      <c r="B1177" t="s" s="11">
+        <v>4561</v>
+      </c>
+      <c r="C1177" t="s" s="12">
+        <v>4562</v>
+      </c>
+      <c r="D1177" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1177" s="13"/>
+      <c r="F1177" t="s" s="12">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="1178" ht="36.15" customHeight="1">
+      <c r="A1178" t="s" s="10">
+        <v>4564</v>
+      </c>
+      <c r="B1178" t="s" s="11">
+        <v>4565</v>
+      </c>
+      <c r="C1178" t="s" s="12">
+        <v>4566</v>
+      </c>
+      <c r="D1178" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1178" s="13"/>
+      <c r="F1178" t="s" s="12">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="1179" ht="23.15" customHeight="1">
+      <c r="A1179" t="s" s="10">
+        <v>4568</v>
+      </c>
+      <c r="B1179" t="s" s="11">
+        <v>4345</v>
+      </c>
+      <c r="C1179" t="s" s="12">
+        <v>4569</v>
+      </c>
+      <c r="D1179" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1179" s="13"/>
+      <c r="F1179" t="s" s="12">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="1180" ht="36.15" customHeight="1">
+      <c r="A1180" t="s" s="10">
+        <v>4570</v>
+      </c>
+      <c r="B1180" t="s" s="11">
+        <v>4571</v>
+      </c>
+      <c r="C1180" t="s" s="12">
+        <v>4572</v>
+      </c>
+      <c r="D1180" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1180" s="13"/>
+      <c r="F1180" t="s" s="12">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="1181" ht="36.15" customHeight="1">
+      <c r="A1181" t="s" s="10">
+        <v>4573</v>
+      </c>
+      <c r="B1181" t="s" s="11">
+        <v>4574</v>
+      </c>
+      <c r="C1181" t="s" s="12">
+        <v>4575</v>
+      </c>
+      <c r="D1181" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1181" s="13"/>
+      <c r="F1181" t="s" s="12">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="1182" ht="36.15" customHeight="1">
+      <c r="A1182" t="s" s="10">
+        <v>4577</v>
+      </c>
+      <c r="B1182" t="s" s="11">
+        <v>4578</v>
+      </c>
+      <c r="C1182" t="s" s="12">
+        <v>4579</v>
+      </c>
+      <c r="D1182" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1182" s="13"/>
+      <c r="F1182" t="s" s="12">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="1183" ht="36.15" customHeight="1">
+      <c r="A1183" t="s" s="10">
+        <v>4581</v>
+      </c>
+      <c r="B1183" t="s" s="11">
+        <v>4582</v>
+      </c>
+      <c r="C1183" t="s" s="12">
+        <v>4583</v>
+      </c>
+      <c r="D1183" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1183" s="13"/>
+      <c r="F1183" t="s" s="12">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="1184" ht="36.15" customHeight="1">
+      <c r="A1184" t="s" s="10">
+        <v>4585</v>
+      </c>
+      <c r="B1184" t="s" s="11">
+        <v>4586</v>
+      </c>
+      <c r="C1184" t="s" s="12">
+        <v>4587</v>
+      </c>
+      <c r="D1184" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1184" s="13"/>
+      <c r="F1184" t="s" s="12">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="1185" ht="23.15" customHeight="1">
+      <c r="A1185" t="s" s="10">
+        <v>4589</v>
+      </c>
+      <c r="B1185" t="s" s="24">
+        <v>3979</v>
+      </c>
+      <c r="C1185" t="s" s="12">
+        <v>4590</v>
+      </c>
+      <c r="D1185" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1185" s="13"/>
+      <c r="F1185" t="s" s="12">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="1186" ht="36.15" customHeight="1">
+      <c r="A1186" t="s" s="10">
+        <v>4591</v>
+      </c>
+      <c r="B1186" t="s" s="11">
+        <v>4592</v>
+      </c>
+      <c r="C1186" t="s" s="12">
+        <v>4593</v>
+      </c>
+      <c r="D1186" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1186" s="13"/>
+      <c r="F1186" t="s" s="12">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="1187" ht="36.15" customHeight="1">
+      <c r="A1187" t="s" s="10">
+        <v>4595</v>
+      </c>
+      <c r="B1187" t="s" s="11">
+        <v>4596</v>
+      </c>
+      <c r="C1187" t="s" s="12">
+        <v>4597</v>
+      </c>
+      <c r="D1187" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1187" s="13"/>
+      <c r="F1187" t="s" s="12">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="1188" ht="23.15" customHeight="1">
+      <c r="A1188" t="s" s="10">
+        <v>4599</v>
+      </c>
+      <c r="B1188" t="s" s="11">
+        <v>4238</v>
+      </c>
+      <c r="C1188" t="s" s="12">
+        <v>4600</v>
+      </c>
+      <c r="D1188" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1188" s="13"/>
+      <c r="F1188" t="s" s="12">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="1189" ht="36.15" customHeight="1">
+      <c r="A1189" t="s" s="10">
+        <v>4601</v>
+      </c>
+      <c r="B1189" t="s" s="11">
+        <v>4602</v>
+      </c>
+      <c r="C1189" t="s" s="12">
+        <v>4603</v>
+      </c>
+      <c r="D1189" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1189" s="13"/>
+      <c r="F1189" t="s" s="12">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="1190" ht="36.15" customHeight="1">
+      <c r="A1190" t="s" s="10">
+        <v>4605</v>
+      </c>
+      <c r="B1190" t="s" s="11">
+        <v>4606</v>
+      </c>
+      <c r="C1190" t="s" s="12">
+        <v>4607</v>
+      </c>
+      <c r="D1190" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1190" s="13"/>
+      <c r="F1190" t="s" s="12">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="1191" ht="36.15" customHeight="1">
+      <c r="A1191" t="s" s="10">
+        <v>4609</v>
+      </c>
+      <c r="B1191" t="s" s="11">
+        <v>4610</v>
+      </c>
+      <c r="C1191" t="s" s="12">
+        <v>4611</v>
+      </c>
+      <c r="D1191" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1191" s="13"/>
+      <c r="F1191" t="s" s="12">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="1192" ht="36.15" customHeight="1">
+      <c r="A1192" t="s" s="10">
+        <v>4613</v>
+      </c>
+      <c r="B1192" t="s" s="11">
+        <v>4614</v>
+      </c>
+      <c r="C1192" t="s" s="12">
+        <v>4615</v>
+      </c>
+      <c r="D1192" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1192" s="13"/>
+      <c r="F1192" t="s" s="12">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="1193" ht="36.15" customHeight="1">
+      <c r="A1193" t="s" s="10">
+        <v>4617</v>
+      </c>
+      <c r="B1193" t="s" s="11">
+        <v>4618</v>
+      </c>
+      <c r="C1193" t="s" s="12">
+        <v>4619</v>
+      </c>
+      <c r="D1193" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1193" s="13"/>
+      <c r="F1193" t="s" s="12">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="1194" ht="36.15" customHeight="1">
+      <c r="A1194" t="s" s="10">
+        <v>4621</v>
+      </c>
+      <c r="B1194" t="s" s="11">
+        <v>4622</v>
+      </c>
+      <c r="C1194" t="s" s="12">
+        <v>4623</v>
+      </c>
+      <c r="D1194" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1194" s="13"/>
+      <c r="F1194" t="s" s="12">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="1195" ht="36.15" customHeight="1">
+      <c r="A1195" t="s" s="10">
+        <v>4625</v>
+      </c>
+      <c r="B1195" t="s" s="11">
+        <v>4626</v>
+      </c>
+      <c r="C1195" t="s" s="12">
+        <v>4627</v>
+      </c>
+      <c r="D1195" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1195" s="13"/>
+      <c r="F1195" t="s" s="12">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="1196" ht="36.15" customHeight="1">
+      <c r="A1196" t="s" s="10">
+        <v>4629</v>
+      </c>
+      <c r="B1196" t="s" s="11">
+        <v>4630</v>
+      </c>
+      <c r="C1196" t="s" s="12">
+        <v>4631</v>
+      </c>
+      <c r="D1196" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="E1196" s="13"/>
+      <c r="F1196" t="s" s="12">
+        <v>4632</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
